--- a/AWHI_Walcott_dataset.xlsx
+++ b/AWHI_Walcott_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curryt/Documents/GitHub/AWHI-projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tiana/Documents/GitHub/AWHI-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CDE92E-517E-094C-8CCF-8D95CD635BC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9A169-1C16-1544-9DA1-41B5E661C6AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="460" windowWidth="29700" windowHeight="27220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="25600" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Pinaceae</t>
   </si>
   <si>
-    <t>Walcott, C. D.</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Aceraceae</t>
   </si>
   <si>
-    <t>Walcott, M. V.</t>
-  </si>
-  <si>
     <t>South Carolina</t>
   </si>
   <si>
@@ -1103,6 +1097,12 @@
   </si>
   <si>
     <t>family_name</t>
+  </si>
+  <si>
+    <t>C. D. Walcott</t>
+  </si>
+  <si>
+    <t>M. V. Walcott</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1620,9 +1620,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
@@ -1990,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2019,13 +2019,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2039,6270 +2039,6270 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1355660</v>
+        <v>1160457</v>
       </c>
       <c r="B2">
-        <v>208828</v>
+        <v>99194</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="G2" s="4">
         <v>1900</v>
       </c>
       <c r="H2" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>210</v>
+        <v>247</v>
+      </c>
+      <c r="J2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1160457</v>
+        <v>3089925</v>
       </c>
       <c r="B3">
-        <v>99194</v>
+        <v>80416</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="G3" s="4">
         <v>1900</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J3" t="s">
-        <v>250</v>
+        <v>19</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3089925</v>
+        <v>3088994</v>
       </c>
       <c r="B4">
-        <v>80416</v>
+        <v>80403</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" t="s">
         <v>359</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
       </c>
       <c r="G4" s="4">
         <v>1900</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3088994</v>
+        <v>1805301</v>
       </c>
       <c r="B5">
-        <v>80403</v>
+        <v>27505</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="G5" s="4">
         <v>1900</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>197</v>
+        <v>19</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1805301</v>
-      </c>
-      <c r="B6">
-        <v>27505</v>
+        <v>2180001</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="G6" s="4">
         <v>1900</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2180001</v>
+        <v>1695516</v>
+      </c>
+      <c r="B7">
+        <v>67945</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="G7" s="4">
         <v>1900</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1695516</v>
+        <v>903985</v>
       </c>
       <c r="B8">
-        <v>67945</v>
+        <v>94672</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="G8" s="4">
         <v>1900</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>300</v>
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>903985</v>
-      </c>
-      <c r="B9">
-        <v>94672</v>
+        <v>2332553</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="G9" s="4">
         <v>1900</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2332553</v>
+        <v>2033952</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="G10" s="4">
         <v>1900</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2033952</v>
+        <v>1271837</v>
+      </c>
+      <c r="B11">
+        <v>102663</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="G11" s="4">
         <v>1900</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1271837</v>
+        <v>95527</v>
       </c>
       <c r="B12">
-        <v>102663</v>
+        <v>47980</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="G12" s="4">
         <v>1900</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>95527</v>
-      </c>
-      <c r="B13">
-        <v>47980</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>353</v>
+      <c r="A13" s="2">
+        <v>178076</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3046523</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>274</v>
+        <v>359</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1905</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1776538</v>
+        <v>173042</v>
       </c>
       <c r="B14">
-        <v>1836923</v>
+        <v>1434394</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="G14" s="4">
         <v>1905</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>141</v>
+        <v>108</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2330073</v>
+        <v>2283849</v>
       </c>
       <c r="B15">
-        <v>1836929</v>
+        <v>1434402</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="G15" s="4">
         <v>1905</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>178076</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3046523</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="A16">
+        <v>2286389</v>
+      </c>
+      <c r="B16">
+        <v>1622315</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H16" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="13">
-        <v>1905</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>234</v>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>173042</v>
+        <v>1232353</v>
       </c>
       <c r="B17">
-        <v>1434394</v>
+        <v>1434397</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F17" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H17" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2283849</v>
+        <v>3128388</v>
       </c>
       <c r="B18">
-        <v>1434402</v>
+        <v>1699658</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F18" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H18" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2286389</v>
+        <v>3105900</v>
       </c>
       <c r="B19">
-        <v>1622315</v>
+        <v>1434405</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
       <c r="I19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>213</v>
+        <v>70</v>
+      </c>
+      <c r="J19" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1232353</v>
+        <v>3029721</v>
       </c>
       <c r="B20">
-        <v>1434397</v>
+        <v>1699659</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>345</v>
+        <v>217</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="F20" t="s">
+        <v>359</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3128388</v>
-      </c>
-      <c r="B21">
-        <v>1699658</v>
+        <v>2744518</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F21" t="s">
+        <v>359</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H21" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3105900</v>
+        <v>2744927</v>
       </c>
       <c r="B22">
-        <v>1434405</v>
+        <v>1434393</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="F22" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H22" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>3029721</v>
+        <v>3146473</v>
       </c>
       <c r="B23">
-        <v>1699659</v>
+        <v>1582093</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>343</v>
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>331</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="G23" s="4">
         <v>1905</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2744518</v>
+        <v>1831171</v>
+      </c>
+      <c r="B24">
+        <v>48762</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="F24" t="s">
+        <v>359</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H24" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2744927</v>
+        <v>2285143</v>
       </c>
       <c r="B25">
-        <v>1434393</v>
+        <v>20579</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F25" t="s">
+        <v>359</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H25" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3146473</v>
+        <v>2857016</v>
       </c>
       <c r="B26">
-        <v>1582093</v>
+        <v>1567163</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="F26" t="s">
+        <v>359</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H26" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H26" t="s">
-        <v>25</v>
-      </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>90</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1831171</v>
+        <v>2980305</v>
       </c>
       <c r="B27">
-        <v>48762</v>
+        <v>1622311</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H27" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>11</v>
       </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>245</v>
+      <c r="J27" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2285143</v>
+        <v>2958196</v>
       </c>
       <c r="B28">
-        <v>20579</v>
+        <v>1567160</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F28" t="s">
+        <v>359</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H28" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>11</v>
       </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
       <c r="J28" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2857016</v>
+        <v>3159752</v>
       </c>
       <c r="B29">
-        <v>1567163</v>
+        <v>1567164</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E29" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="F29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H29" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>11</v>
       </c>
-      <c r="I29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" t="s">
-        <v>283</v>
+      <c r="J29" s="11" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2980305</v>
+        <v>77079</v>
       </c>
       <c r="B30">
-        <v>1622311</v>
+        <v>1567161</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F30" t="s">
+        <v>359</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H30" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>11</v>
       </c>
-      <c r="I30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>196</v>
+      <c r="J30" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2958196</v>
+        <v>380916</v>
       </c>
       <c r="B31">
-        <v>1567160</v>
+        <v>1010214</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="F31" t="s">
+        <v>359</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H31" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
       <c r="I31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" t="s">
-        <v>281</v>
+        <v>36</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>3159752</v>
+        <v>380917</v>
       </c>
       <c r="B32">
-        <v>1567164</v>
+        <v>1010215</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>293</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="F32" t="s">
+        <v>359</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H32" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>294</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>77079</v>
+        <v>395790</v>
       </c>
       <c r="B33">
-        <v>1567161</v>
+        <v>1010216</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>346</v>
+        <v>156</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="F33" t="s">
+        <v>359</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H33" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
       <c r="I33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" t="s">
-        <v>270</v>
+        <v>36</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1505123</v>
+        <v>378370</v>
       </c>
       <c r="B34">
-        <v>1433991</v>
+        <v>1110865</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="G34" s="4">
-        <v>1905</v>
+        <v>1922</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2175226</v>
-      </c>
-      <c r="B35">
-        <v>1434014</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
+      <c r="A35" s="8">
+        <v>2276912</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1534566</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" t="s">
-        <v>30</v>
+        <v>359</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1932</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2175227</v>
-      </c>
-      <c r="B36">
-        <v>1434011</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
+      <c r="A36" s="8">
+        <v>2068133</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1580574</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>31</v>
+        <v>359</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1932</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2175597</v>
-      </c>
-      <c r="B37">
-        <v>1433976</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
+      <c r="A37" s="8">
+        <v>2334309</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1622320</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H37" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" t="s">
-        <v>33</v>
+        <v>359</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1934</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1730249</v>
-      </c>
-      <c r="B38">
-        <v>1434002</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>323</v>
+      <c r="A38" s="8">
+        <v>531654</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1622312</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H38" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
-        <v>49</v>
+        <v>359</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1934</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1732932</v>
-      </c>
-      <c r="B39">
-        <v>1433979</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
+      <c r="A39" s="8">
+        <v>3177503</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1699655</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" t="s">
-        <v>51</v>
+        <v>359</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1936</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1802336</v>
-      </c>
-      <c r="B40">
-        <v>1433977</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
+      <c r="A40" s="8">
+        <v>2297565</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1730909</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H40" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" t="s">
-        <v>56</v>
+        <v>359</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1937</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1802472</v>
-      </c>
-      <c r="B41">
-        <v>1619159</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
+      <c r="A41" s="8">
+        <v>3091669</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1730908</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>57</v>
+        <v>359</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1803281</v>
-      </c>
-      <c r="B42">
-        <v>1433978</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
+      <c r="A42" s="8">
+        <v>1439346</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1730907</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
-        <v>58</v>
+        <v>359</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1712928</v>
-      </c>
-      <c r="B43">
-        <v>1433984</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
+      <c r="A43" s="8">
+        <v>2440478</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1730906</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>150</v>
+        <v>359</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1713180</v>
-      </c>
-      <c r="B44">
-        <v>1434013</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
+      <c r="A44" s="8">
+        <v>3173931</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1730905</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" t="s">
-        <v>153</v>
+        <v>359</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1830356</v>
-      </c>
-      <c r="B45">
-        <v>1433992</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>323</v>
+      <c r="A45" s="8">
+        <v>3190806</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1730904</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H45" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
-        <v>242</v>
+        <v>359</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2903965</v>
-      </c>
-      <c r="B46">
-        <v>1433998</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>178</v>
+      <c r="A46" s="8">
+        <v>3119721</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1730910</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>179</v>
+        <v>359</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2910828</v>
-      </c>
-      <c r="B47">
-        <v>1434018</v>
+        <v>1927186</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="4">
-        <v>1905</v>
+        <v>359</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" t="s">
-        <v>227</v>
+        <v>70</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>178076</v>
-      </c>
-      <c r="B48" s="2">
-        <v>3046523</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="13">
-        <v>1905</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>234</v>
+      <c r="A48">
+        <v>1927164</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>346</v>
+      </c>
+      <c r="F48" t="s">
+        <v>359</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2985124</v>
+        <v>1355660</v>
       </c>
       <c r="B49">
-        <v>1434024</v>
+        <v>208828</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="E49" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G49" s="4">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="I49" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" t="s">
-        <v>54</v>
+        <v>207</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2985125</v>
+        <v>1776538</v>
       </c>
       <c r="B50">
-        <v>1434010</v>
+        <v>1836923</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G50" s="4">
         <v>1905</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2990780</v>
+        <v>2330073</v>
       </c>
       <c r="B51">
-        <v>1085844</v>
+        <v>1836929</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G51" s="4">
         <v>1905</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" t="s">
-        <v>307</v>
+        <v>70</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2328565</v>
+        <v>1505123</v>
       </c>
       <c r="B52">
-        <v>1085870</v>
+        <v>1433991</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G52" s="4">
         <v>1905</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2331370</v>
+        <v>2175226</v>
       </c>
       <c r="B53">
-        <v>1085868</v>
+        <v>1434014</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G53" s="4">
         <v>1905</v>
       </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J53" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2042391</v>
+        <v>2175227</v>
       </c>
       <c r="B54">
-        <v>1085866</v>
+        <v>1434011</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G54" s="4">
         <v>1905</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="J54" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2042629</v>
+        <v>2175597</v>
       </c>
       <c r="B55">
-        <v>1433995</v>
+        <v>1433976</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G55" s="4">
         <v>1905</v>
       </c>
       <c r="H55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J55" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2042630</v>
+        <v>1730249</v>
       </c>
       <c r="B56">
-        <v>1434015</v>
+        <v>1434002</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G56" s="4">
         <v>1905</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J56" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2040526</v>
+        <v>1732932</v>
       </c>
       <c r="B57">
-        <v>1085867</v>
+        <v>1433979</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G57" s="4">
         <v>1905</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J57" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2445158</v>
+        <v>1802336</v>
       </c>
       <c r="B58">
-        <v>1085872</v>
+        <v>1433977</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G58" s="4">
         <v>1905</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J58" t="s">
-        <v>312</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>3238042</v>
+        <v>1802472</v>
       </c>
       <c r="B59">
-        <v>1433983</v>
+        <v>1619159</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G59" s="4">
         <v>1905</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" t="s">
-        <v>109</v>
+        <v>27</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>3237292</v>
+        <v>1803281</v>
       </c>
       <c r="B60">
-        <v>1085842</v>
+        <v>1433978</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G60" s="4">
         <v>1905</v>
       </c>
       <c r="H60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J60" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>3237568</v>
+        <v>1712928</v>
       </c>
       <c r="B61">
-        <v>1433999</v>
+        <v>1433984</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G61" s="4">
         <v>1905</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" t="s">
-        <v>174</v>
+        <v>27</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>3187543</v>
+        <v>1713180</v>
       </c>
       <c r="B62">
-        <v>1434006</v>
+        <v>1434013</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G62" s="4">
         <v>1905</v>
       </c>
       <c r="H62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J62" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3187686</v>
+        <v>1830356</v>
       </c>
       <c r="B63">
-        <v>1434007</v>
+        <v>1433992</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G63" s="4">
         <v>1905</v>
       </c>
       <c r="H63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J63" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2064083</v>
+        <v>2903965</v>
       </c>
       <c r="B64">
-        <v>1433993</v>
+        <v>1433998</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E64" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G64" s="4">
         <v>1905</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I64" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" t="s">
-        <v>264</v>
+        <v>27</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2744813</v>
+        <v>2910828</v>
+      </c>
+      <c r="B65">
+        <v>1434018</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E65" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G65" s="4">
         <v>1905</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J65" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>3123158</v>
-      </c>
-      <c r="B66">
-        <v>1434019</v>
-      </c>
-      <c r="C66" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" t="s">
-        <v>351</v>
+      <c r="A66" s="2">
+        <v>178076</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3046523</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H66" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" t="s">
-        <v>47</v>
+        <v>360</v>
+      </c>
+      <c r="G66" s="13">
+        <v>1905</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>3011436</v>
+        <v>2985124</v>
       </c>
       <c r="B67">
-        <v>1433985</v>
+        <v>1434024</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>314</v>
+        <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G67" s="4">
         <v>1905</v>
       </c>
       <c r="H67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J67" t="s">
-        <v>316</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1756012</v>
+        <v>2985125</v>
       </c>
       <c r="B68">
-        <v>1534410</v>
+        <v>1434010</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G68" s="4">
         <v>1905</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="J68" t="s">
-        <v>320</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2307982</v>
+        <v>2990780</v>
       </c>
       <c r="B69">
-        <v>1631697</v>
+        <v>1085844</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G69" s="4">
         <v>1905</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="J69" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>991574</v>
+        <v>2328565</v>
       </c>
       <c r="B70">
-        <v>1534409</v>
+        <v>1085870</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="E70" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G70" s="4">
         <v>1905</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="J70" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>77141</v>
+        <v>2331370</v>
       </c>
       <c r="B71">
-        <v>1631700</v>
+        <v>1085868</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E71" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G71" s="4">
         <v>1905</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I71" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="J71" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1505093</v>
+        <v>2042391</v>
       </c>
       <c r="B72">
-        <v>1085903</v>
+        <v>1085866</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E72" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G72" s="4">
         <v>1905</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J72" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2175211</v>
+        <v>2042629</v>
       </c>
       <c r="B73">
-        <v>1085826</v>
+        <v>1433995</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G73" s="4">
         <v>1905</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J73" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2175229</v>
+        <v>2042630</v>
       </c>
       <c r="B74">
-        <v>888543</v>
+        <v>1434015</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E74" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G74" s="4">
         <v>1905</v>
       </c>
       <c r="H74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J74" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2175598</v>
+        <v>2040526</v>
       </c>
       <c r="B75">
-        <v>1085825</v>
+        <v>1085867</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E75" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G75" s="4">
         <v>1905</v>
       </c>
       <c r="H75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J75" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2175599</v>
+        <v>2445158</v>
       </c>
       <c r="B76">
-        <v>1085824</v>
+        <v>1085872</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E76" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G76" s="4">
         <v>1905</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J76" t="s">
-        <v>35</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1734346</v>
+        <v>3238042</v>
       </c>
       <c r="B77">
-        <v>1085810</v>
+        <v>1433983</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G77" s="4">
         <v>1905</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1731068</v>
+        <v>3237292</v>
       </c>
       <c r="B78">
-        <v>1085812</v>
+        <v>1085842</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G78" s="4">
         <v>1905</v>
       </c>
       <c r="H78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1816416</v>
+        <v>3237568</v>
       </c>
       <c r="B79">
-        <v>1085809</v>
+        <v>1433999</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G79" s="4">
         <v>1905</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J79" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2177130</v>
+        <v>3187543</v>
       </c>
       <c r="B80">
-        <v>1085823</v>
+        <v>1434006</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="E80" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G80" s="4">
         <v>1905</v>
       </c>
       <c r="H80" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J80" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1710400</v>
+        <v>3187686</v>
       </c>
       <c r="B81">
-        <v>1085817</v>
+        <v>1434007</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="E81" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G81" s="4">
         <v>1905</v>
       </c>
       <c r="H81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J81" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1710549</v>
+        <v>2064083</v>
       </c>
       <c r="B82">
-        <v>1085816</v>
+        <v>1433993</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G82" s="4">
         <v>1905</v>
       </c>
       <c r="H82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J82" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1710812</v>
-      </c>
-      <c r="B83">
-        <v>1085819</v>
+        <v>2744813</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G83" s="4">
         <v>1905</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J83" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1711211</v>
+        <v>3123158</v>
       </c>
       <c r="B84">
-        <v>1433959</v>
+        <v>1434019</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E84" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G84" s="4">
         <v>1905</v>
       </c>
       <c r="H84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J84" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1712924</v>
+        <v>3011436</v>
       </c>
       <c r="B85">
-        <v>1085818</v>
+        <v>1433985</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="E85" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G85" s="4">
         <v>1905</v>
       </c>
       <c r="H85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J85" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1712952</v>
+        <v>1756012</v>
       </c>
       <c r="B86">
-        <v>1433960</v>
+        <v>1534410</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G86" s="4">
         <v>1905</v>
       </c>
       <c r="H86" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I86" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="J86" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1712953</v>
+        <v>2307982</v>
       </c>
       <c r="B87">
-        <v>1433961</v>
+        <v>1631697</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E87" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G87" s="4">
         <v>1905</v>
       </c>
       <c r="H87" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="J87" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1706262</v>
+        <v>991574</v>
       </c>
       <c r="B88">
-        <v>1085924</v>
+        <v>1534409</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="E88" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G88" s="4">
         <v>1905</v>
       </c>
       <c r="H88" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I88" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="J88" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>2180102</v>
+        <v>77141</v>
       </c>
       <c r="B89">
-        <v>1085822</v>
+        <v>1631700</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G89" s="4">
         <v>1905</v>
       </c>
       <c r="H89" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I89" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="J89" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1830546</v>
+        <v>1505093</v>
       </c>
       <c r="B90">
-        <v>1085815</v>
+        <v>1085903</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E90" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G90" s="4">
         <v>1905</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J90" t="s">
-        <v>243</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1830931</v>
+        <v>2175211</v>
       </c>
       <c r="B91">
-        <v>1085813</v>
+        <v>1085826</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G91" s="4">
         <v>1905</v>
       </c>
       <c r="H91" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I91" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" t="s">
         <v>26</v>
-      </c>
-      <c r="J91" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1824616</v>
+        <v>2175229</v>
       </c>
       <c r="B92">
-        <v>1085808</v>
+        <v>888543</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G92" s="4">
         <v>1905</v>
       </c>
       <c r="H92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J92" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>2154819</v>
+        <v>2175598</v>
       </c>
       <c r="B93">
-        <v>1085811</v>
+        <v>1085825</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G93" s="4">
         <v>1905</v>
       </c>
       <c r="H93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I93" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J93" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1834613</v>
+        <v>2175599</v>
       </c>
       <c r="B94">
-        <v>1433966</v>
+        <v>1085824</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G94" s="4">
         <v>1905</v>
       </c>
       <c r="H94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J94" t="s">
-        <v>287</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1686080</v>
+        <v>1734346</v>
       </c>
       <c r="B95">
-        <v>1085821</v>
+        <v>1085810</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G95" s="4">
         <v>1905</v>
       </c>
       <c r="H95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I95" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J95" t="s">
-        <v>290</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1863109</v>
+        <v>1731068</v>
       </c>
       <c r="B96">
-        <v>1433950</v>
+        <v>1085812</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G96" s="4">
         <v>1905</v>
       </c>
       <c r="H96" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J96" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1529758</v>
+        <v>1816416</v>
       </c>
       <c r="B97">
-        <v>1085906</v>
+        <v>1085809</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G97" s="4">
         <v>1905</v>
       </c>
       <c r="H97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J97" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>2910827</v>
+        <v>2177130</v>
       </c>
       <c r="B98">
-        <v>1433962</v>
+        <v>1085823</v>
       </c>
       <c r="C98" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G98" s="4">
         <v>1905</v>
       </c>
       <c r="H98" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J98" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>903811</v>
+        <v>1710400</v>
       </c>
       <c r="B99">
-        <v>917978</v>
+        <v>1085817</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G99" s="4">
         <v>1905</v>
       </c>
       <c r="H99" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I99" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J99" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>492130</v>
+        <v>1710549</v>
       </c>
       <c r="B100">
-        <v>1085829</v>
+        <v>1085816</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G100" s="4">
         <v>1905</v>
       </c>
       <c r="H100" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J100" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>2768245</v>
+        <v>1710812</v>
       </c>
       <c r="B101">
-        <v>1085832</v>
+        <v>1085819</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="E101" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G101" s="4">
         <v>1905</v>
       </c>
       <c r="H101" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J101" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>2768252</v>
+        <v>1711211</v>
       </c>
       <c r="B102">
-        <v>888533</v>
+        <v>1433959</v>
       </c>
       <c r="C102" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G102" s="4">
         <v>1905</v>
       </c>
       <c r="H102" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J102" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>2789372</v>
+        <v>1712924</v>
       </c>
       <c r="B103">
-        <v>1085925</v>
+        <v>1085818</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="E103" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G103" s="4">
         <v>1905</v>
       </c>
       <c r="H103" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I103" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J103" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>2789420</v>
+        <v>1712952</v>
       </c>
       <c r="B104">
-        <v>1085830</v>
+        <v>1433960</v>
       </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G104" s="4">
         <v>1905</v>
       </c>
       <c r="H104" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I104" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J104" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>3099143</v>
+        <v>1712953</v>
       </c>
       <c r="B105">
-        <v>1085857</v>
+        <v>1433961</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="E105" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G105" s="4">
         <v>1905</v>
       </c>
       <c r="H105" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I105" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J105" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>2077227</v>
+        <v>1706262</v>
       </c>
       <c r="B106">
-        <v>1433956</v>
+        <v>1085924</v>
       </c>
       <c r="C106" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="E106" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G106" s="4">
         <v>1905</v>
       </c>
       <c r="H106" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I106" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J106" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1501674</v>
+        <v>2180102</v>
       </c>
       <c r="B107">
-        <v>1085905</v>
+        <v>1085822</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="E107" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G107" s="4">
         <v>1905</v>
       </c>
       <c r="H107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I107" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J107" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1557242</v>
+        <v>1830546</v>
       </c>
       <c r="B108">
-        <v>1085904</v>
+        <v>1085815</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="E108" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G108" s="4">
         <v>1905</v>
       </c>
       <c r="H108" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I108" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J108" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>2981960</v>
+        <v>1830931</v>
       </c>
       <c r="B109">
-        <v>1085853</v>
+        <v>1085813</v>
       </c>
       <c r="C109" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E109" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G109" s="4">
         <v>1905</v>
       </c>
       <c r="H109" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J109" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>2980899</v>
+        <v>1824616</v>
       </c>
       <c r="B110">
-        <v>1433968</v>
+        <v>1085808</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D110" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E110" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G110" s="4">
         <v>1905</v>
       </c>
       <c r="H110" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I110" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J110" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>2980900</v>
+        <v>2154819</v>
       </c>
       <c r="B111">
-        <v>1085849</v>
+        <v>1085811</v>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G111" s="4">
         <v>1905</v>
       </c>
       <c r="H111" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I111" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J111" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>2980061</v>
+        <v>1834613</v>
       </c>
       <c r="B112">
-        <v>1085846</v>
+        <v>1433966</v>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E112" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G112" s="4">
         <v>1905</v>
       </c>
       <c r="H112" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I112" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J112" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>2981362</v>
+        <v>1686080</v>
       </c>
       <c r="B113">
-        <v>1085850</v>
+        <v>1085821</v>
       </c>
       <c r="C113" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E113" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G113" s="4">
         <v>1905</v>
       </c>
       <c r="H113" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I113" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J113" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>2981497</v>
+        <v>1863109</v>
       </c>
       <c r="B114">
-        <v>1085852</v>
+        <v>1433950</v>
       </c>
       <c r="C114" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E114" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G114" s="4">
         <v>1905</v>
       </c>
       <c r="H114" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I114" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J114" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>2981580</v>
+        <v>1529758</v>
       </c>
       <c r="B115">
-        <v>1433967</v>
+        <v>1085906</v>
       </c>
       <c r="C115" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E115" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G115" s="4">
         <v>1905</v>
       </c>
       <c r="H115" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I115" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J115" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>2981582</v>
+        <v>2910827</v>
       </c>
       <c r="B116">
-        <v>1085851</v>
+        <v>1433962</v>
       </c>
       <c r="C116" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="E116" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G116" s="4">
         <v>1905</v>
       </c>
       <c r="H116" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I116" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J116" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>2957512</v>
+        <v>903811</v>
       </c>
       <c r="B117">
-        <v>1085848</v>
+        <v>917978</v>
       </c>
       <c r="C117" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E117" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G117" s="4">
         <v>1905</v>
       </c>
       <c r="H117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I117" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J117" t="s">
-        <v>280</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>2987501</v>
+        <v>492130</v>
       </c>
       <c r="B118">
-        <v>888542</v>
+        <v>1085829</v>
       </c>
       <c r="C118" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E118" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G118" s="4">
         <v>1905</v>
       </c>
       <c r="H118" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I118" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J118" t="s">
-        <v>304</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>2989552</v>
+        <v>2768245</v>
       </c>
       <c r="B119">
-        <v>1085845</v>
+        <v>1085832</v>
       </c>
       <c r="C119" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="D119" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="E119" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G119" s="4">
         <v>1905</v>
       </c>
       <c r="H119" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I119" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J119" t="s">
-        <v>306</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>2328602</v>
+        <v>2768252</v>
       </c>
       <c r="B120">
-        <v>1433963</v>
+        <v>888533</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="D120" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="E120" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G120" s="4">
         <v>1905</v>
       </c>
       <c r="H120" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J120" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2329526</v>
+        <v>2789372</v>
       </c>
       <c r="B121">
-        <v>1085869</v>
+        <v>1085925</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="D121" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="E121" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G121" s="4">
         <v>1905</v>
       </c>
       <c r="H121" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I121" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J121" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2329527</v>
+        <v>2789420</v>
       </c>
       <c r="B122">
-        <v>1085871</v>
+        <v>1085830</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="D122" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="E122" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G122" s="4">
         <v>1905</v>
       </c>
       <c r="H122" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I122" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J122" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>2042615</v>
+        <v>3099143</v>
       </c>
       <c r="B123">
-        <v>1085864</v>
+        <v>1085857</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="D123" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="E123" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G123" s="4">
         <v>1905</v>
       </c>
       <c r="H123" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I123" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J123" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2042738</v>
+        <v>2077227</v>
       </c>
       <c r="B124">
-        <v>1085865</v>
+        <v>1433956</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D124" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E124" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G124" s="4">
         <v>1905</v>
       </c>
       <c r="H124" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I124" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J124" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>2039452</v>
+        <v>1501674</v>
       </c>
       <c r="B125">
-        <v>1433970</v>
+        <v>1085905</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="E125" t="s">
-        <v>338</v>
+        <v>135</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G125" s="4">
         <v>1905</v>
       </c>
       <c r="H125" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I125" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J125" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>3237561</v>
+        <v>1557242</v>
       </c>
       <c r="B126">
-        <v>1085841</v>
+        <v>1085904</v>
       </c>
       <c r="C126" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="E126" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G126" s="4">
         <v>1905</v>
       </c>
       <c r="H126" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I126" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J126" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1361477</v>
+        <v>2981960</v>
       </c>
       <c r="B127">
-        <v>1085859</v>
+        <v>1085853</v>
       </c>
       <c r="C127" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="D127" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G127" s="4">
         <v>1905</v>
       </c>
       <c r="H127" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I127" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J127" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1362115</v>
+        <v>2980899</v>
       </c>
       <c r="B128">
-        <v>1085858</v>
+        <v>1433968</v>
       </c>
       <c r="C128" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G128" s="4">
         <v>1905</v>
       </c>
       <c r="H128" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I128" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J128" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>451236</v>
+        <v>2980900</v>
       </c>
       <c r="B129">
-        <v>888537</v>
+        <v>1085849</v>
       </c>
       <c r="C129" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D129" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G129" s="4">
         <v>1905</v>
       </c>
       <c r="H129" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I129" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J129" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>466849</v>
+        <v>2980061</v>
       </c>
       <c r="B130">
-        <v>1433971</v>
+        <v>1085846</v>
       </c>
       <c r="C130" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D130" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G130" s="4">
         <v>1905</v>
       </c>
       <c r="H130" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I130" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J130" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>6400</v>
+        <v>2981362</v>
       </c>
       <c r="B131">
-        <v>1085914</v>
+        <v>1085850</v>
       </c>
       <c r="C131" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D131" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G131" s="4">
         <v>1905</v>
       </c>
       <c r="H131" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I131" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J131" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>6661</v>
+        <v>2981497</v>
       </c>
       <c r="B132">
-        <v>1085915</v>
+        <v>1085852</v>
       </c>
       <c r="C132" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D132" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G132" s="4">
         <v>1905</v>
       </c>
       <c r="H132" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I132" t="s">
-        <v>26</v>
-      </c>
-      <c r="J132" s="11" t="s">
-        <v>177</v>
+        <v>24</v>
+      </c>
+      <c r="J132" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>2067263</v>
+        <v>2981580</v>
       </c>
       <c r="B133">
-        <v>1433952</v>
+        <v>1433967</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G133" s="4">
         <v>1905</v>
       </c>
       <c r="H133" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I133" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J133" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>3286586</v>
+        <v>2981582</v>
       </c>
       <c r="B134">
-        <v>1085900</v>
+        <v>1085851</v>
       </c>
       <c r="C134" t="s">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="D134" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G134" s="4">
         <v>1905</v>
       </c>
       <c r="H134" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I134" t="s">
-        <v>26</v>
-      </c>
-      <c r="J134" s="11" t="s">
-        <v>239</v>
+        <v>24</v>
+      </c>
+      <c r="J134" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>3123578</v>
+        <v>2957512</v>
       </c>
       <c r="B135">
-        <v>1433972</v>
+        <v>1085848</v>
       </c>
       <c r="C135" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D135" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G135" s="4">
         <v>1905</v>
       </c>
       <c r="H135" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I135" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>3119654</v>
+        <v>2987501</v>
       </c>
       <c r="B136">
-        <v>1433953</v>
+        <v>888542</v>
       </c>
       <c r="C136" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D136" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G136" s="4">
         <v>1905</v>
       </c>
       <c r="H136" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I136" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J136" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1487260</v>
+        <v>2989552</v>
       </c>
       <c r="B137">
-        <v>1085916</v>
+        <v>1085845</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G137" s="4">
         <v>1905</v>
       </c>
       <c r="H137" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I137" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J137" t="s">
-        <v>27</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>3103079</v>
+        <v>2328602</v>
       </c>
       <c r="B138">
-        <v>1433957</v>
+        <v>1433963</v>
       </c>
       <c r="C138" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G138" s="4">
         <v>1905</v>
       </c>
       <c r="H138" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I138" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J138" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>3104843</v>
+        <v>2329526</v>
       </c>
       <c r="B139">
-        <v>1085854</v>
+        <v>1085869</v>
       </c>
       <c r="C139" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E139" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G139" s="4">
         <v>1905</v>
       </c>
       <c r="H139" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I139" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J139" t="s">
-        <v>224</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>3105168</v>
+        <v>2329527</v>
       </c>
       <c r="B140">
-        <v>1085856</v>
+        <v>1085871</v>
       </c>
       <c r="C140" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D140" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E140" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G140" s="4">
         <v>1905</v>
       </c>
       <c r="H140" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I140" t="s">
-        <v>26</v>
-      </c>
-      <c r="J140" s="11" t="s">
-        <v>235</v>
+        <v>24</v>
+      </c>
+      <c r="J140" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>2793495</v>
+        <v>2042615</v>
       </c>
       <c r="B141">
-        <v>1085827</v>
+        <v>1085864</v>
       </c>
       <c r="C141" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="D141" t="s">
-        <v>308</v>
+        <v>64</v>
       </c>
       <c r="E141" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G141" s="4">
         <v>1905</v>
       </c>
       <c r="H141" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I141" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J141" t="s">
-        <v>309</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>3011299</v>
+        <v>2042738</v>
       </c>
       <c r="B142">
-        <v>1085860</v>
+        <v>1085865</v>
       </c>
       <c r="C142" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="D142" t="s">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="E142" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G142" s="4">
         <v>1905</v>
       </c>
       <c r="H142" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I142" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J142" t="s">
-        <v>315</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>3012117</v>
+        <v>2039452</v>
       </c>
       <c r="B143">
-        <v>1433969</v>
+        <v>1433970</v>
       </c>
       <c r="C143" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="D143" t="s">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="E143" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G143" s="4">
         <v>1905</v>
       </c>
       <c r="H143" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I143" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J143" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>3012424</v>
+        <v>3237561</v>
       </c>
       <c r="B144">
-        <v>1085861</v>
+        <v>1085841</v>
       </c>
       <c r="C144" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="D144" t="s">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="E144" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G144" s="4">
         <v>1905</v>
       </c>
       <c r="H144" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I144" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J144" t="s">
-        <v>319</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>2799515</v>
+        <v>1361477</v>
       </c>
       <c r="B145">
-        <v>1836928</v>
+        <v>1085859</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D145" t="s">
-        <v>121</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>341</v>
+        <v>101</v>
+      </c>
+      <c r="E145" t="s">
+        <v>343</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G145" s="4">
         <v>1905</v>
       </c>
       <c r="H145" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I145" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="J145" t="s">
-        <v>284</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>3158105</v>
+        <v>1362115</v>
       </c>
       <c r="B146">
-        <v>1534408</v>
+        <v>1085858</v>
       </c>
       <c r="C146" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D146" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="E146" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G146" s="4">
         <v>1905</v>
       </c>
       <c r="H146" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I146" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="J146" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>76824</v>
+        <v>451236</v>
       </c>
       <c r="B147">
-        <v>1085910</v>
+        <v>888537</v>
       </c>
       <c r="C147" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E147" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G147" s="4">
         <v>1905</v>
       </c>
       <c r="H147" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I147" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="J147" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>1711046</v>
+        <v>466849</v>
       </c>
       <c r="B148">
-        <v>1433974</v>
+        <v>1433971</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E148" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G148" s="4">
         <v>1905</v>
       </c>
       <c r="H148" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I148" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="J148" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>903965</v>
+        <v>6400</v>
       </c>
       <c r="B149">
-        <v>1631703</v>
+        <v>1085914</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D149" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E149" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G149" s="4">
         <v>1905</v>
       </c>
       <c r="H149" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I149" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="J149" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1271916</v>
+        <v>6661</v>
       </c>
       <c r="B150">
-        <v>1534407</v>
+        <v>1085915</v>
       </c>
       <c r="C150" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D150" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E150" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G150" s="4">
         <v>1905</v>
       </c>
       <c r="H150" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I150" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="J150" s="11" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>1272253</v>
+        <v>2067263</v>
       </c>
       <c r="B151">
-        <v>1534406</v>
+        <v>1433952</v>
       </c>
       <c r="C151" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G151" s="4">
         <v>1905</v>
       </c>
       <c r="H151" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I151" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="J151" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>2744553</v>
+        <v>3286586</v>
+      </c>
+      <c r="B152">
+        <v>1085900</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="E152" t="s">
         <v>348</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G152" s="4">
         <v>1905</v>
       </c>
       <c r="H152" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I152" t="s">
-        <v>93</v>
-      </c>
-      <c r="J152" t="s">
-        <v>262</v>
+        <v>24</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>2063288</v>
+        <v>3123578</v>
       </c>
       <c r="B153">
-        <v>1631704</v>
+        <v>1433972</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E153" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G153" s="4">
         <v>1905</v>
       </c>
       <c r="H153" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I153" t="s">
-        <v>93</v>
-      </c>
-      <c r="J153" s="11" t="s">
-        <v>263</v>
+        <v>24</v>
+      </c>
+      <c r="J153" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>3179075</v>
+        <v>3119654</v>
       </c>
       <c r="B154">
-        <v>1534405</v>
+        <v>1433953</v>
       </c>
       <c r="C154" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D154" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="E154" t="s">
         <v>349</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G154" s="4">
         <v>1905</v>
       </c>
       <c r="H154" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I154" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="J154" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="6">
-        <v>1128870</v>
-      </c>
-      <c r="B155" s="6">
-        <v>1476220</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" s="7">
-        <v>1915</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J155" s="12" t="s">
-        <v>86</v>
+      <c r="A155">
+        <v>1487260</v>
+      </c>
+      <c r="B155">
+        <v>1085916</v>
+      </c>
+      <c r="C155" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" t="s">
+        <v>350</v>
+      </c>
+      <c r="F155" t="s">
+        <v>360</v>
+      </c>
+      <c r="G155" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H155" t="s">
+        <v>23</v>
+      </c>
+      <c r="I155" t="s">
+        <v>24</v>
+      </c>
+      <c r="J155" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>1835590</v>
+        <v>3103079</v>
       </c>
       <c r="B156">
-        <v>888531</v>
+        <v>1433957</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="E156" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G156" s="4">
-        <v>1918</v>
+        <v>1905</v>
       </c>
       <c r="H156" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I156" t="s">
-        <v>26</v>
-      </c>
-      <c r="J156" s="11" t="s">
-        <v>288</v>
+        <v>24</v>
+      </c>
+      <c r="J156" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>2773176</v>
+        <v>3104843</v>
       </c>
       <c r="B157">
-        <v>888532</v>
+        <v>1085854</v>
       </c>
       <c r="C157" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D157" t="s">
-        <v>121</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>341</v>
+        <v>104</v>
+      </c>
+      <c r="E157" t="s">
+        <v>335</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G157" s="4">
-        <v>1918</v>
+        <v>1905</v>
       </c>
       <c r="H157" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I157" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J157" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>380916</v>
+        <v>3105168</v>
       </c>
       <c r="B158">
-        <v>1010214</v>
+        <v>1085856</v>
       </c>
       <c r="C158" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D158" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="E158" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="G158" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H158" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I158" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>380917</v>
+        <v>2793495</v>
       </c>
       <c r="B159">
-        <v>1010215</v>
+        <v>1085827</v>
       </c>
       <c r="C159" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="D159" t="s">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="E159" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="F159" t="s">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="G159" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H159" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I159" t="s">
-        <v>38</v>
-      </c>
-      <c r="J159" s="11" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="J159" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>395790</v>
+        <v>3011299</v>
       </c>
       <c r="B160">
-        <v>1010216</v>
+        <v>1085860</v>
       </c>
       <c r="C160" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="D160" t="s">
-        <v>158</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>342</v>
+        <v>312</v>
+      </c>
+      <c r="E160" t="s">
+        <v>355</v>
       </c>
       <c r="F160" t="s">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="G160" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H160" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I160" t="s">
-        <v>38</v>
-      </c>
-      <c r="J160" s="11" t="s">
-        <v>159</v>
+        <v>24</v>
+      </c>
+      <c r="J160" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>2788940</v>
+        <v>3012117</v>
       </c>
       <c r="B161">
-        <v>1085831</v>
+        <v>1433969</v>
       </c>
       <c r="C161" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D161" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="E161" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G161" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H161" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I161" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J161" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>2441249</v>
+        <v>3012424</v>
       </c>
       <c r="B162">
-        <v>1085862</v>
+        <v>1085861</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="D162" t="s">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="E162" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G162" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H162" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I162" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J162" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>2445163</v>
+        <v>2799515</v>
       </c>
       <c r="B163">
-        <v>1085863</v>
+        <v>1836928</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D163" t="s">
-        <v>66</v>
-      </c>
-      <c r="E163" t="s">
-        <v>338</v>
+        <v>119</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G163" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H163" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I163" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="J163" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>22480</v>
+        <v>3158105</v>
       </c>
       <c r="B164">
-        <v>1085909</v>
+        <v>1534408</v>
       </c>
       <c r="C164" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D164" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="E164" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G164" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H164" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I164" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>5815</v>
+        <v>76824</v>
       </c>
       <c r="B165">
-        <v>1085907</v>
+        <v>1085910</v>
       </c>
       <c r="C165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E165" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G165" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H165" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I165" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="J165" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>3128768</v>
+        <v>1711046</v>
       </c>
       <c r="B166">
-        <v>1085843</v>
+        <v>1433974</v>
       </c>
       <c r="C166" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D166" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E166" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G166" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H166" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I166" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="J166" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>3103475</v>
+        <v>903965</v>
       </c>
       <c r="B167">
-        <v>1085855</v>
+        <v>1631703</v>
       </c>
       <c r="C167" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D167" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E167" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G167" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H167" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I167" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="J167" t="s">
-        <v>279</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>2556939</v>
+        <v>1271916</v>
       </c>
       <c r="B168">
-        <v>1085834</v>
+        <v>1534407</v>
       </c>
       <c r="C168" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="D168" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="E168" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G168" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H168" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I168" t="s">
-        <v>29</v>
-      </c>
-      <c r="J168" t="s">
-        <v>167</v>
+        <v>91</v>
+      </c>
+      <c r="J168" s="11" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>2913087</v>
+        <v>1272253</v>
       </c>
       <c r="B169">
-        <v>1085840</v>
+        <v>1534406</v>
       </c>
       <c r="C169" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D169" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="E169" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G169" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H169" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I169" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="J169" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>2104215</v>
-      </c>
-      <c r="B170">
-        <v>1433975</v>
+        <v>2744553</v>
       </c>
       <c r="C170" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G170" s="4">
-        <v>1921</v>
+        <v>1905</v>
       </c>
       <c r="H170" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I170" t="s">
-        <v>29</v>
-      </c>
-      <c r="J170" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="J170" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>1686082</v>
+        <v>2063288</v>
       </c>
       <c r="B171">
-        <v>1433951</v>
+        <v>1631704</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G171" s="4">
-        <v>1921</v>
+        <v>1905</v>
       </c>
       <c r="H171" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I171" t="s">
-        <v>26</v>
-      </c>
-      <c r="J171" t="s">
-        <v>291</v>
+        <v>91</v>
+      </c>
+      <c r="J171" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>378370</v>
+        <v>3179075</v>
       </c>
       <c r="B172">
-        <v>1110865</v>
+        <v>1534405</v>
       </c>
       <c r="C172" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="D172" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E172" t="s">
         <v>347</v>
       </c>
       <c r="F172" t="s">
+        <v>360</v>
+      </c>
+      <c r="G172" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H172" t="s">
         <v>10</v>
       </c>
-      <c r="G172" s="4">
-        <v>1922</v>
-      </c>
-      <c r="H172" t="s">
-        <v>11</v>
-      </c>
       <c r="I172" t="s">
-        <v>163</v>
-      </c>
-      <c r="J172" s="11" t="s">
-        <v>164</v>
+        <v>91</v>
+      </c>
+      <c r="J172" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>1242759</v>
-      </c>
-      <c r="B173">
-        <v>1243753</v>
-      </c>
-      <c r="C173" t="s">
-        <v>215</v>
-      </c>
-      <c r="D173" t="s">
-        <v>216</v>
-      </c>
-      <c r="E173" t="s">
-        <v>344</v>
+      <c r="A173" s="6">
+        <v>1128870</v>
+      </c>
+      <c r="B173" s="6">
+        <v>1476220</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" s="4">
-        <v>1926</v>
-      </c>
-      <c r="H173" t="s">
-        <v>11</v>
-      </c>
-      <c r="I173" t="s">
-        <v>72</v>
-      </c>
-      <c r="J173" t="s">
-        <v>217</v>
+        <v>360</v>
+      </c>
+      <c r="G173" s="7">
+        <v>1915</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J173" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>1863773</v>
+        <v>1835590</v>
       </c>
       <c r="B174">
-        <v>1287593</v>
+        <v>888531</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E174" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G174" s="4">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="H174" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I174" t="s">
-        <v>17</v>
-      </c>
-      <c r="J174" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>3350719</v>
+        <v>2773176</v>
       </c>
       <c r="B175">
-        <v>1287592</v>
+        <v>888532</v>
       </c>
       <c r="C175" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="D175" t="s">
-        <v>188</v>
-      </c>
-      <c r="E175" t="s">
-        <v>326</v>
+        <v>119</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G175" s="4">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="H175" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I175" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J175" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>2987820</v>
+        <v>2788940</v>
       </c>
       <c r="B176">
-        <v>1287594</v>
+        <v>1085831</v>
       </c>
       <c r="C176" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G176" s="4">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="H176" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I176" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J176" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>2065164</v>
+        <v>2441249</v>
       </c>
       <c r="B177">
-        <v>1287591</v>
+        <v>1085862</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E177" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G177" s="4">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="H177" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I177" t="s">
-        <v>17</v>
-      </c>
-      <c r="J177" s="11" t="s">
-        <v>267</v>
+        <v>27</v>
+      </c>
+      <c r="J177" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>1957113</v>
+        <v>2445163</v>
       </c>
       <c r="B178">
-        <v>1438341</v>
+        <v>1085863</v>
       </c>
       <c r="C178" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D178" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G178" s="4">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="H178" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J178" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>19821</v>
+        <v>22480</v>
       </c>
       <c r="B179">
-        <v>1438342</v>
+        <v>1085909</v>
       </c>
       <c r="C179" t="s">
+        <v>39</v>
+      </c>
+      <c r="D179" t="s">
+        <v>40</v>
+      </c>
+      <c r="E179" t="s">
+        <v>344</v>
+      </c>
+      <c r="F179" t="s">
+        <v>360</v>
+      </c>
+      <c r="G179" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H179" t="s">
+        <v>23</v>
+      </c>
+      <c r="I179" t="s">
+        <v>27</v>
+      </c>
+      <c r="J179" t="s">
         <v>41</v>
-      </c>
-      <c r="D179" t="s">
-        <v>42</v>
-      </c>
-      <c r="E179" t="s">
-        <v>346</v>
-      </c>
-      <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" s="4">
-        <v>1929</v>
-      </c>
-      <c r="H179" t="s">
-        <v>11</v>
-      </c>
-      <c r="I179" t="s">
-        <v>72</v>
-      </c>
-      <c r="J179" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>2062546</v>
+        <v>5815</v>
       </c>
       <c r="B180">
-        <v>1438343</v>
+        <v>1085907</v>
       </c>
       <c r="C180" t="s">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="D180" t="s">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G180" s="4">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="H180" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I180" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J180" t="s">
-        <v>299</v>
+        <v>134</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="8">
-        <v>2276912</v>
-      </c>
-      <c r="B181" s="8">
-        <v>1534566</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>66</v>
+      <c r="A181">
+        <v>3128768</v>
+      </c>
+      <c r="B181">
+        <v>1085843</v>
+      </c>
+      <c r="C181" t="s">
+        <v>43</v>
+      </c>
+      <c r="D181" t="s">
+        <v>44</v>
       </c>
       <c r="E181" t="s">
-        <v>338</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="9">
-        <v>1932</v>
-      </c>
-      <c r="H181" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I181" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F181" t="s">
+        <v>360</v>
+      </c>
+      <c r="G181" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H181" t="s">
+        <v>23</v>
+      </c>
+      <c r="I181" t="s">
+        <v>27</v>
+      </c>
+      <c r="J181" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>3103475</v>
+      </c>
+      <c r="B182">
+        <v>1085855</v>
+      </c>
+      <c r="C182" t="s">
+        <v>50</v>
+      </c>
+      <c r="D182" t="s">
+        <v>104</v>
+      </c>
+      <c r="E182" t="s">
+        <v>335</v>
+      </c>
+      <c r="F182" t="s">
+        <v>360</v>
+      </c>
+      <c r="G182" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H182" t="s">
+        <v>23</v>
+      </c>
+      <c r="I182" t="s">
+        <v>27</v>
+      </c>
+      <c r="J182" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>2556939</v>
+      </c>
+      <c r="B183">
+        <v>1085834</v>
+      </c>
+      <c r="C183" t="s">
+        <v>163</v>
+      </c>
+      <c r="D183" t="s">
+        <v>164</v>
+      </c>
+      <c r="E183" t="s">
+        <v>352</v>
+      </c>
+      <c r="F183" t="s">
+        <v>360</v>
+      </c>
+      <c r="G183" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H183" t="s">
+        <v>23</v>
+      </c>
+      <c r="I183" t="s">
+        <v>27</v>
+      </c>
+      <c r="J183" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>2913087</v>
+      </c>
+      <c r="B184">
+        <v>1085840</v>
+      </c>
+      <c r="C184" t="s">
         <v>80</v>
       </c>
-      <c r="J181" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="8">
-        <v>2068133</v>
-      </c>
-      <c r="B182" s="8">
-        <v>1580574</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" t="s">
-        <v>348</v>
-      </c>
-      <c r="F182" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="9">
-        <v>1932</v>
-      </c>
-      <c r="H182" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I182" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J182" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="8">
-        <v>2334309</v>
-      </c>
-      <c r="B183" s="8">
-        <v>1622320</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E183" t="s">
-        <v>338</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="9">
-        <v>1934</v>
-      </c>
-      <c r="H183" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I183" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J183" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="8">
-        <v>531654</v>
-      </c>
-      <c r="B184" s="8">
-        <v>1622312</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="9">
-        <v>1934</v>
-      </c>
-      <c r="H184" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I184" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J184" s="8" t="s">
-        <v>122</v>
+      <c r="D184" t="s">
+        <v>176</v>
+      </c>
+      <c r="E184" t="s">
+        <v>328</v>
+      </c>
+      <c r="F184" t="s">
+        <v>360</v>
+      </c>
+      <c r="G184" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H184" t="s">
+        <v>23</v>
+      </c>
+      <c r="I184" t="s">
+        <v>24</v>
+      </c>
+      <c r="J184" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="185" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>175935</v>
+        <v>2104215</v>
       </c>
       <c r="B185">
-        <v>1631706</v>
+        <v>1433975</v>
       </c>
       <c r="C185" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D185" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="E185" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="G185" s="4">
-        <v>1934</v>
+        <v>1921</v>
       </c>
       <c r="H185" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I185" t="s">
-        <v>21</v>
-      </c>
-      <c r="J185" t="s">
-        <v>233</v>
+        <v>27</v>
+      </c>
+      <c r="J185" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="186" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="8">
-        <v>3177503</v>
-      </c>
-      <c r="B186" s="8">
-        <v>1699655</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>190</v>
+      <c r="A186">
+        <v>1686082</v>
+      </c>
+      <c r="B186">
+        <v>1433951</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>18</v>
       </c>
       <c r="E186" t="s">
-        <v>349</v>
-      </c>
-      <c r="F186" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F186" t="s">
+        <v>360</v>
+      </c>
+      <c r="G186" s="4">
+        <v>1921</v>
+      </c>
+      <c r="H186" t="s">
+        <v>23</v>
+      </c>
+      <c r="I186" t="s">
+        <v>24</v>
+      </c>
+      <c r="J186" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>1242759</v>
+      </c>
+      <c r="B187">
+        <v>1243753</v>
+      </c>
+      <c r="C187" t="s">
+        <v>213</v>
+      </c>
+      <c r="D187" t="s">
+        <v>214</v>
+      </c>
+      <c r="E187" t="s">
+        <v>342</v>
+      </c>
+      <c r="F187" t="s">
+        <v>360</v>
+      </c>
+      <c r="G187" s="4">
+        <v>1926</v>
+      </c>
+      <c r="H187" t="s">
         <v>10</v>
       </c>
-      <c r="G186" s="9">
-        <v>1936</v>
-      </c>
-      <c r="H186" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I186" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J186" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="8">
-        <v>2297565</v>
-      </c>
-      <c r="B187" s="8">
-        <v>1730909</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E187" t="s">
-        <v>338</v>
-      </c>
-      <c r="F187" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="9">
-        <v>1937</v>
-      </c>
-      <c r="H187" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I187" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J187" s="10" t="s">
-        <v>301</v>
+      <c r="I187" t="s">
+        <v>70</v>
+      </c>
+      <c r="J187" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>2297760</v>
+        <v>1863773</v>
       </c>
       <c r="B188">
-        <v>1814831</v>
+        <v>1287593</v>
       </c>
       <c r="C188" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D188" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E188" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="F188" t="s">
+        <v>360</v>
+      </c>
+      <c r="G188" s="4">
+        <v>1926</v>
+      </c>
+      <c r="H188" t="s">
+        <v>10</v>
+      </c>
+      <c r="I188" t="s">
+        <v>15</v>
+      </c>
+      <c r="J188" t="s">
         <v>16</v>
       </c>
-      <c r="G188" s="4">
-        <v>1937</v>
-      </c>
-      <c r="H188" t="s">
-        <v>11</v>
-      </c>
-      <c r="I188" t="s">
-        <v>249</v>
-      </c>
-      <c r="J188" s="11" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="189" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="8">
-        <v>3091669</v>
-      </c>
-      <c r="B189" s="8">
-        <v>1730908</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>119</v>
+      <c r="A189">
+        <v>3350719</v>
+      </c>
+      <c r="B189">
+        <v>1287592</v>
+      </c>
+      <c r="C189" t="s">
+        <v>185</v>
+      </c>
+      <c r="D189" t="s">
+        <v>186</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
-      </c>
-      <c r="F189" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F189" t="s">
+        <v>360</v>
+      </c>
+      <c r="G189" s="4">
+        <v>1926</v>
+      </c>
+      <c r="H189" t="s">
         <v>10</v>
       </c>
-      <c r="G189" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H189" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I189" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J189" s="8" t="s">
-        <v>278</v>
+      <c r="I189" t="s">
+        <v>15</v>
+      </c>
+      <c r="J189" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="8">
-        <v>1439346</v>
-      </c>
-      <c r="B190" s="8">
-        <v>1730907</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>20</v>
+      <c r="A190">
+        <v>2987820</v>
+      </c>
+      <c r="B190">
+        <v>1287594</v>
+      </c>
+      <c r="C190" t="s">
+        <v>50</v>
+      </c>
+      <c r="D190" t="s">
+        <v>51</v>
       </c>
       <c r="E190" t="s">
-        <v>323</v>
-      </c>
-      <c r="F190" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F190" t="s">
+        <v>360</v>
+      </c>
+      <c r="G190" s="4">
+        <v>1926</v>
+      </c>
+      <c r="H190" t="s">
         <v>10</v>
       </c>
-      <c r="G190" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H190" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I190" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J190" s="10" t="s">
-        <v>154</v>
+      <c r="I190" t="s">
+        <v>15</v>
+      </c>
+      <c r="J190" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="8">
-        <v>2440478</v>
-      </c>
-      <c r="B191" s="8">
-        <v>1730906</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>66</v>
+      <c r="A191">
+        <v>2065164</v>
+      </c>
+      <c r="B191">
+        <v>1287591</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>338</v>
-      </c>
-      <c r="F191" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F191" t="s">
+        <v>360</v>
+      </c>
+      <c r="G191" s="4">
+        <v>1926</v>
+      </c>
+      <c r="H191" t="s">
         <v>10</v>
       </c>
-      <c r="G191" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H191" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I191" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J191" s="8" t="s">
-        <v>194</v>
+      <c r="I191" t="s">
+        <v>15</v>
+      </c>
+      <c r="J191" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="8">
-        <v>3173931</v>
-      </c>
-      <c r="B192" s="8">
-        <v>1730905</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>190</v>
+      <c r="A192">
+        <v>1957113</v>
+      </c>
+      <c r="B192">
+        <v>1438341</v>
+      </c>
+      <c r="C192" t="s">
+        <v>58</v>
+      </c>
+      <c r="D192" t="s">
+        <v>106</v>
       </c>
       <c r="E192" t="s">
-        <v>349</v>
-      </c>
-      <c r="F192" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F192" t="s">
+        <v>360</v>
+      </c>
+      <c r="G192" s="4">
+        <v>1929</v>
+      </c>
+      <c r="H192" t="s">
+        <v>23</v>
+      </c>
+      <c r="I192" t="s">
+        <v>27</v>
+      </c>
+      <c r="J192" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>19821</v>
+      </c>
+      <c r="B193">
+        <v>1438342</v>
+      </c>
+      <c r="C193" t="s">
+        <v>39</v>
+      </c>
+      <c r="D193" t="s">
+        <v>40</v>
+      </c>
+      <c r="E193" t="s">
+        <v>344</v>
+      </c>
+      <c r="F193" t="s">
+        <v>360</v>
+      </c>
+      <c r="G193" s="4">
+        <v>1929</v>
+      </c>
+      <c r="H193" t="s">
         <v>10</v>
       </c>
-      <c r="G192" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H192" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I192" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J192" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="8">
-        <v>3190806</v>
-      </c>
-      <c r="B193" s="8">
-        <v>1730904</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="F193" s="8" t="s">
+      <c r="I193" t="s">
+        <v>70</v>
+      </c>
+      <c r="J193" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>2062546</v>
+      </c>
+      <c r="B194">
+        <v>1438343</v>
+      </c>
+      <c r="C194" t="s">
+        <v>295</v>
+      </c>
+      <c r="D194" t="s">
+        <v>296</v>
+      </c>
+      <c r="E194" t="s">
+        <v>353</v>
+      </c>
+      <c r="F194" t="s">
+        <v>360</v>
+      </c>
+      <c r="G194" s="4">
+        <v>1929</v>
+      </c>
+      <c r="H194" t="s">
         <v>10</v>
       </c>
-      <c r="G193" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H193" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I193" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J193" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="8">
-        <v>3119721</v>
-      </c>
-      <c r="B194" s="8">
-        <v>1730910</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E194" t="s">
-        <v>351</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H194" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I194" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J194" s="10" t="s">
-        <v>276</v>
+      <c r="I194" t="s">
+        <v>70</v>
+      </c>
+      <c r="J194" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>2157545</v>
+        <v>175935</v>
       </c>
       <c r="B195">
-        <v>1828597</v>
+        <v>1631706</v>
       </c>
       <c r="C195" t="s">
+        <v>125</v>
+      </c>
+      <c r="D195" t="s">
+        <v>126</v>
+      </c>
+      <c r="E195" t="s">
+        <v>329</v>
+      </c>
+      <c r="F195" t="s">
+        <v>360</v>
+      </c>
+      <c r="G195" s="4">
+        <v>1934</v>
+      </c>
+      <c r="H195" t="s">
+        <v>10</v>
+      </c>
+      <c r="I195" t="s">
         <v>19</v>
       </c>
-      <c r="D195" t="s">
-        <v>20</v>
-      </c>
-      <c r="E195" t="s">
-        <v>323</v>
-      </c>
-      <c r="F195" t="s">
-        <v>16</v>
-      </c>
-      <c r="H195" t="s">
-        <v>11</v>
-      </c>
-      <c r="I195" t="s">
-        <v>110</v>
-      </c>
-      <c r="J195" s="11" t="s">
-        <v>111</v>
+      <c r="J195" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>3235003</v>
+        <v>2297760</v>
       </c>
       <c r="B196">
-        <v>1828596</v>
+        <v>1814831</v>
       </c>
       <c r="C196" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D196" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="E196" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
+        <v>360</v>
+      </c>
+      <c r="G196" s="4">
+        <v>1937</v>
       </c>
       <c r="H196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I196" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="J196" s="11" t="s">
-        <v>171</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>1927186</v>
+        <v>2157545</v>
+      </c>
+      <c r="B197">
+        <v>1828597</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E197" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="F197" t="s">
+        <v>360</v>
+      </c>
+      <c r="H197" t="s">
         <v>10</v>
       </c>
-      <c r="H197" t="s">
-        <v>11</v>
-      </c>
       <c r="I197" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="J197" s="11" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>1927164</v>
+        <v>3235003</v>
+      </c>
+      <c r="B198">
+        <v>1828596</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="E198" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F198" t="s">
+        <v>360</v>
+      </c>
+      <c r="H198" t="s">
         <v>10</v>
       </c>
-      <c r="H198" t="s">
-        <v>11</v>
-      </c>
       <c r="I198" t="s">
-        <v>72</v>
-      </c>
-      <c r="J198" t="s">
-        <v>289</v>
+        <v>70</v>
+      </c>
+      <c r="J198" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
@@ -8313,25 +8313,25 @@
         <v>1619162</v>
       </c>
       <c r="C199" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D199" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E199" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F199" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H199" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I199" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J199" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -8342,25 +8342,25 @@
         <v>16191610</v>
       </c>
       <c r="C200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D200" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E200" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F200" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H200" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I200" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J200" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -8371,25 +8371,25 @@
         <v>1619168</v>
       </c>
       <c r="C201" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D201" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E201" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F201" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H201" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J201" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -8400,25 +8400,25 @@
         <v>1619166</v>
       </c>
       <c r="C202" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D202" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E202" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H202" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I202" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J202" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -8429,25 +8429,25 @@
         <v>1619161</v>
       </c>
       <c r="C203" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D203" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E203" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F203" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H203" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I203" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J203" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -8458,25 +8458,25 @@
         <v>1619154</v>
       </c>
       <c r="C204" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" t="s">
+        <v>59</v>
+      </c>
+      <c r="E204" t="s">
+        <v>325</v>
+      </c>
+      <c r="F204" t="s">
+        <v>360</v>
+      </c>
+      <c r="H204" t="s">
+        <v>23</v>
+      </c>
+      <c r="I204" t="s">
+        <v>24</v>
+      </c>
+      <c r="J204" t="s">
         <v>60</v>
-      </c>
-      <c r="D204" t="s">
-        <v>61</v>
-      </c>
-      <c r="E204" t="s">
-        <v>327</v>
-      </c>
-      <c r="F204" t="s">
-        <v>16</v>
-      </c>
-      <c r="H204" t="s">
-        <v>25</v>
-      </c>
-      <c r="I204" t="s">
-        <v>26</v>
-      </c>
-      <c r="J204" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -8484,25 +8484,25 @@
         <v>1763516</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E205" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H205" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I205" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J205" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -8513,25 +8513,25 @@
         <v>69784</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D206" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E206" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H206" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I206" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J206" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -8542,25 +8542,25 @@
         <v>74632</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E207" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H207" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I207" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J207" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
@@ -8571,25 +8571,25 @@
         <v>1085820</v>
       </c>
       <c r="C208" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E208" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H208" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I208" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J208" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
@@ -8600,25 +8600,25 @@
         <v>74096</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D209" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E209" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H209" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I209" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J209" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
@@ -8629,25 +8629,25 @@
         <v>72959</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E210" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H210" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I210" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J210" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
@@ -8655,25 +8655,25 @@
         <v>1697706</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D211" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E211" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F211" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H211" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I211" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J211" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
@@ -8684,25 +8684,25 @@
         <v>1085828</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D212" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E212" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H212" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I212" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J212" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
@@ -8713,25 +8713,25 @@
         <v>1619153</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D213" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E213" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H213" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I213" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J213" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
@@ -8742,25 +8742,25 @@
         <v>1619144</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D214" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E214" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F214" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H214" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I214" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J214" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
@@ -8771,25 +8771,25 @@
         <v>1619149</v>
       </c>
       <c r="C215" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D215" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E215" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F215" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H215" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I215" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J215" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
@@ -8800,25 +8800,25 @@
         <v>1619146</v>
       </c>
       <c r="C216" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D216" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E216" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F216" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H216" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I216" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J216" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
@@ -8829,25 +8829,25 @@
         <v>1619152</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D217" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E217" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F217" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H217" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I217" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J217" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
@@ -8858,25 +8858,25 @@
         <v>1085913</v>
       </c>
       <c r="C218" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D218" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E218" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F218" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H218" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I218" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J218" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
@@ -8887,25 +8887,25 @@
         <v>1619145</v>
       </c>
       <c r="C219" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D219" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E219" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F219" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H219" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I219" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J219" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
@@ -8916,77 +8916,77 @@
         <v>1619155</v>
       </c>
       <c r="C220" t="s">
+        <v>113</v>
+      </c>
+      <c r="D220" t="s">
+        <v>114</v>
+      </c>
+      <c r="E220" t="s">
+        <v>114</v>
+      </c>
+      <c r="F220" t="s">
+        <v>360</v>
+      </c>
+      <c r="H220" t="s">
+        <v>23</v>
+      </c>
+      <c r="I220" t="s">
+        <v>24</v>
+      </c>
+      <c r="J220" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D220" t="s">
-        <v>116</v>
-      </c>
-      <c r="E220" t="s">
-        <v>116</v>
-      </c>
-      <c r="F220" t="s">
-        <v>16</v>
-      </c>
-      <c r="H220" t="s">
-        <v>25</v>
-      </c>
-      <c r="I220" t="s">
-        <v>26</v>
-      </c>
-      <c r="J220" s="11" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J221">
-    <sortCondition ref="G2:G221"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J220">
+    <sortCondition ref="F1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J182" r:id="rId1" xr:uid="{4BAA63AF-E622-C54C-884F-52F9B4EA4CB2}"/>
+    <hyperlink ref="J36" r:id="rId1" xr:uid="{4BAA63AF-E622-C54C-884F-52F9B4EA4CB2}"/>
     <hyperlink ref="J208" r:id="rId2" xr:uid="{C3C5E323-7DF9-5041-8ABA-0CFD95DD4199}"/>
-    <hyperlink ref="J193" r:id="rId3" xr:uid="{75172149-E408-3245-9BB3-68C6B51F20EF}"/>
-    <hyperlink ref="J194" r:id="rId4" xr:uid="{5138CFFE-2949-0B49-98A6-BFC7536BB993}"/>
-    <hyperlink ref="J16" r:id="rId5" xr:uid="{EA585D9F-341A-C642-A566-117E27197C4C}"/>
-    <hyperlink ref="J155" r:id="rId6" xr:uid="{19EAB894-4D24-EB4F-A969-6FAE0100D044}"/>
-    <hyperlink ref="J187" r:id="rId7" xr:uid="{52766A8E-05AE-B54D-8AC2-0AC1BF8FAF7F}"/>
-    <hyperlink ref="J188" r:id="rId8" xr:uid="{976C53F4-7631-DC46-9B10-79FF5DD69D56}"/>
-    <hyperlink ref="J158" r:id="rId9" xr:uid="{D4541E93-BC9A-9943-A270-15E30063C8D2}"/>
-    <hyperlink ref="J30" r:id="rId10" xr:uid="{8EFAA8D1-7E41-6247-B066-317CB051BC1C}"/>
-    <hyperlink ref="J48" r:id="rId11" xr:uid="{A64717BC-8D4E-1148-A379-CC97141A6946}"/>
-    <hyperlink ref="J2" r:id="rId12" xr:uid="{AA3642F3-1A69-EF43-B581-3AF5508F29E8}"/>
-    <hyperlink ref="J196" r:id="rId13" xr:uid="{7F606F37-429F-7542-B812-BC237565DBF3}"/>
-    <hyperlink ref="J15" r:id="rId14" xr:uid="{7A851337-565D-5540-AB1F-0799AC256E16}"/>
-    <hyperlink ref="J195" r:id="rId15" xr:uid="{A4A7C27D-17BF-5042-881F-A1980B187C6F}"/>
-    <hyperlink ref="J14" r:id="rId16" xr:uid="{E5527A9C-0ECA-8241-A80A-B78CE9880BB8}"/>
-    <hyperlink ref="J197" r:id="rId17" xr:uid="{F7EBE543-DDE0-154F-9A22-3C6065140BDE}"/>
-    <hyperlink ref="J8" r:id="rId18" xr:uid="{760C4DD4-13E0-5A48-B2F3-2AF275222BFB}"/>
-    <hyperlink ref="J19" r:id="rId19" xr:uid="{256F92D3-9FF7-D84D-9928-1BA64D938BA2}"/>
-    <hyperlink ref="J6" r:id="rId20" xr:uid="{297ADEEB-4B20-3148-9062-49FB9F50A661}"/>
-    <hyperlink ref="J181" r:id="rId21" xr:uid="{35ACB86A-6F5C-C546-9197-81A7EB6CEF93}"/>
-    <hyperlink ref="J11" r:id="rId22" xr:uid="{1FD83D1D-6356-F840-B10E-FA159DAA4004}"/>
-    <hyperlink ref="J32" r:id="rId23" xr:uid="{D7151019-2A2F-4344-BA2D-53B9A68F5DD3}"/>
-    <hyperlink ref="J43" r:id="rId24" xr:uid="{736A8AA4-E52B-984C-86A1-034F12EE7D14}"/>
-    <hyperlink ref="J177" r:id="rId25" xr:uid="{C169DED6-555A-0E46-ADFF-959988BB123F}"/>
-    <hyperlink ref="J132" r:id="rId26" xr:uid="{36BC88E4-9297-5443-A449-1791712A35F7}"/>
-    <hyperlink ref="J134" r:id="rId27" xr:uid="{1F670ACC-B08F-8B4C-BFEA-EEFA91EB971B}"/>
-    <hyperlink ref="J140" r:id="rId28" xr:uid="{58506291-76F9-574B-BB18-4302133A7502}"/>
-    <hyperlink ref="J7" r:id="rId29" xr:uid="{F5C570C6-4480-C04B-B825-297CE7008458}"/>
-    <hyperlink ref="J13" r:id="rId30" xr:uid="{1A1D4649-A7F8-6D4D-9367-C67B8E8C38D7}"/>
-    <hyperlink ref="J12" r:id="rId31" xr:uid="{BB083118-4DF7-1447-8BE0-DE91CF66F053}"/>
-    <hyperlink ref="J4" r:id="rId32" xr:uid="{5A5BCC09-2C68-504A-9B35-42C84B9F50C3}"/>
-    <hyperlink ref="J190" r:id="rId33" xr:uid="{ECB4214D-3300-CA4A-B05F-06A59855017B}"/>
+    <hyperlink ref="J45" r:id="rId3" xr:uid="{75172149-E408-3245-9BB3-68C6B51F20EF}"/>
+    <hyperlink ref="J46" r:id="rId4" xr:uid="{5138CFFE-2949-0B49-98A6-BFC7536BB993}"/>
+    <hyperlink ref="J13" r:id="rId5" xr:uid="{EA585D9F-341A-C642-A566-117E27197C4C}"/>
+    <hyperlink ref="J173" r:id="rId6" xr:uid="{19EAB894-4D24-EB4F-A969-6FAE0100D044}"/>
+    <hyperlink ref="J40" r:id="rId7" xr:uid="{52766A8E-05AE-B54D-8AC2-0AC1BF8FAF7F}"/>
+    <hyperlink ref="J196" r:id="rId8" xr:uid="{976C53F4-7631-DC46-9B10-79FF5DD69D56}"/>
+    <hyperlink ref="J31" r:id="rId9" xr:uid="{D4541E93-BC9A-9943-A270-15E30063C8D2}"/>
+    <hyperlink ref="J27" r:id="rId10" xr:uid="{8EFAA8D1-7E41-6247-B066-317CB051BC1C}"/>
+    <hyperlink ref="J66" r:id="rId11" xr:uid="{A64717BC-8D4E-1148-A379-CC97141A6946}"/>
+    <hyperlink ref="J49" r:id="rId12" xr:uid="{AA3642F3-1A69-EF43-B581-3AF5508F29E8}"/>
+    <hyperlink ref="J198" r:id="rId13" xr:uid="{7F606F37-429F-7542-B812-BC237565DBF3}"/>
+    <hyperlink ref="J51" r:id="rId14" xr:uid="{7A851337-565D-5540-AB1F-0799AC256E16}"/>
+    <hyperlink ref="J197" r:id="rId15" xr:uid="{A4A7C27D-17BF-5042-881F-A1980B187C6F}"/>
+    <hyperlink ref="J50" r:id="rId16" xr:uid="{E5527A9C-0ECA-8241-A80A-B78CE9880BB8}"/>
+    <hyperlink ref="J47" r:id="rId17" xr:uid="{F7EBE543-DDE0-154F-9A22-3C6065140BDE}"/>
+    <hyperlink ref="J7" r:id="rId18" xr:uid="{760C4DD4-13E0-5A48-B2F3-2AF275222BFB}"/>
+    <hyperlink ref="J16" r:id="rId19" xr:uid="{256F92D3-9FF7-D84D-9928-1BA64D938BA2}"/>
+    <hyperlink ref="J5" r:id="rId20" xr:uid="{297ADEEB-4B20-3148-9062-49FB9F50A661}"/>
+    <hyperlink ref="J35" r:id="rId21" xr:uid="{35ACB86A-6F5C-C546-9197-81A7EB6CEF93}"/>
+    <hyperlink ref="J10" r:id="rId22" xr:uid="{1FD83D1D-6356-F840-B10E-FA159DAA4004}"/>
+    <hyperlink ref="J29" r:id="rId23" xr:uid="{D7151019-2A2F-4344-BA2D-53B9A68F5DD3}"/>
+    <hyperlink ref="J61" r:id="rId24" xr:uid="{736A8AA4-E52B-984C-86A1-034F12EE7D14}"/>
+    <hyperlink ref="J191" r:id="rId25" xr:uid="{C169DED6-555A-0E46-ADFF-959988BB123F}"/>
+    <hyperlink ref="J150" r:id="rId26" xr:uid="{36BC88E4-9297-5443-A449-1791712A35F7}"/>
+    <hyperlink ref="J152" r:id="rId27" xr:uid="{1F670ACC-B08F-8B4C-BFEA-EEFA91EB971B}"/>
+    <hyperlink ref="J158" r:id="rId28" xr:uid="{58506291-76F9-574B-BB18-4302133A7502}"/>
+    <hyperlink ref="J6" r:id="rId29" xr:uid="{F5C570C6-4480-C04B-B825-297CE7008458}"/>
+    <hyperlink ref="J12" r:id="rId30" xr:uid="{1A1D4649-A7F8-6D4D-9367-C67B8E8C38D7}"/>
+    <hyperlink ref="J11" r:id="rId31" xr:uid="{BB083118-4DF7-1447-8BE0-DE91CF66F053}"/>
+    <hyperlink ref="J3" r:id="rId32" xr:uid="{5A5BCC09-2C68-504A-9B35-42C84B9F50C3}"/>
+    <hyperlink ref="J42" r:id="rId33" xr:uid="{ECB4214D-3300-CA4A-B05F-06A59855017B}"/>
     <hyperlink ref="J199" r:id="rId34" xr:uid="{6A1A3287-A15A-EB4D-829C-065B6C9D1CB3}"/>
     <hyperlink ref="J213" r:id="rId35" xr:uid="{2CEF24D6-66A6-F541-B06B-13C1BDD4D7EE}"/>
-    <hyperlink ref="J156" r:id="rId36" xr:uid="{8757C179-4519-8F4F-88CE-E4B56642B970}"/>
-    <hyperlink ref="J36" r:id="rId37" xr:uid="{8AF236ED-CE43-3146-A3FA-60601D517F2A}"/>
-    <hyperlink ref="J46" r:id="rId38" xr:uid="{F383DE55-EE8A-1A49-95D8-998F651E6355}"/>
-    <hyperlink ref="J41" r:id="rId39" xr:uid="{8B19688C-0DE1-6840-B3D0-BA9DF060EC14}"/>
-    <hyperlink ref="J150" r:id="rId40" xr:uid="{19FCE189-4C11-954A-A3B3-C5FA0EC79832}"/>
-    <hyperlink ref="J153" r:id="rId41" xr:uid="{31150BB1-CAF8-6B47-A4AA-08651DE93B42}"/>
-    <hyperlink ref="J160" r:id="rId42" xr:uid="{7AA0EE4C-EAEF-7749-9BF4-B3939FF758DE}"/>
-    <hyperlink ref="J170" r:id="rId43" xr:uid="{9AF2A74F-24C0-7145-9E32-3EE35BFE9321}"/>
-    <hyperlink ref="J172" r:id="rId44" xr:uid="{5D30EF29-8550-8247-AD62-1EAF71948510}"/>
-    <hyperlink ref="J159" r:id="rId45" xr:uid="{7A93FD25-D23D-0049-BCED-00307E038659}"/>
+    <hyperlink ref="J174" r:id="rId36" xr:uid="{8757C179-4519-8F4F-88CE-E4B56642B970}"/>
+    <hyperlink ref="J54" r:id="rId37" xr:uid="{8AF236ED-CE43-3146-A3FA-60601D517F2A}"/>
+    <hyperlink ref="J64" r:id="rId38" xr:uid="{F383DE55-EE8A-1A49-95D8-998F651E6355}"/>
+    <hyperlink ref="J59" r:id="rId39" xr:uid="{8B19688C-0DE1-6840-B3D0-BA9DF060EC14}"/>
+    <hyperlink ref="J168" r:id="rId40" xr:uid="{19FCE189-4C11-954A-A3B3-C5FA0EC79832}"/>
+    <hyperlink ref="J171" r:id="rId41" xr:uid="{31150BB1-CAF8-6B47-A4AA-08651DE93B42}"/>
+    <hyperlink ref="J33" r:id="rId42" xr:uid="{7AA0EE4C-EAEF-7749-9BF4-B3939FF758DE}"/>
+    <hyperlink ref="J185" r:id="rId43" xr:uid="{9AF2A74F-24C0-7145-9E32-3EE35BFE9321}"/>
+    <hyperlink ref="J34" r:id="rId44" xr:uid="{5D30EF29-8550-8247-AD62-1EAF71948510}"/>
+    <hyperlink ref="J32" r:id="rId45" xr:uid="{7A93FD25-D23D-0049-BCED-00307E038659}"/>
     <hyperlink ref="J220" r:id="rId46" xr:uid="{1858D5DC-41A5-954C-ABAA-FFD234E454C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AWHI_Walcott_dataset.xlsx
+++ b/AWHI_Walcott_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tiana/Documents/GitHub/AWHI-projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curryt/Documents/GitHub/AWHI-projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9A169-1C16-1544-9DA1-41B5E661C6AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DCF2DB-E296-3349-9467-BBE22501BE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="25600" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7340" yWindow="4280" windowWidth="40880" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -1256,7 +1256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1454,6 +1454,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1616,7 +1622,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1632,6 +1638,7 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1990,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2038,229 +2045,235 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1160457</v>
-      </c>
-      <c r="B2">
-        <v>99194</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>246</v>
+      <c r="A2" s="8">
+        <v>3091669</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1730908</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="F2" t="s">
         <v>359</v>
       </c>
-      <c r="G2" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J2" t="s">
-        <v>248</v>
+      <c r="I2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3089925</v>
-      </c>
-      <c r="B3">
-        <v>80416</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
+      <c r="A3" s="8">
+        <v>1439346</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1730907</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="F3" t="s">
         <v>359</v>
       </c>
-      <c r="G3" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>118</v>
+      <c r="I3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3088994</v>
-      </c>
-      <c r="B4">
-        <v>80403</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
+      <c r="A4" s="8">
+        <v>2440478</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1730906</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
         <v>359</v>
       </c>
-      <c r="G4" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>195</v>
+      <c r="I4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1805301</v>
-      </c>
-      <c r="B5">
-        <v>27505</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
+      <c r="A5" s="8">
+        <v>3173931</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1730905</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="F5" t="s">
         <v>359</v>
       </c>
-      <c r="G5" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>20</v>
+      <c r="I5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2180001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>321</v>
+      <c r="A6" s="8">
+        <v>3190806</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1730904</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="F6" t="s">
         <v>359</v>
       </c>
-      <c r="G6" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>183</v>
+      <c r="I6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1695516</v>
-      </c>
-      <c r="B7">
-        <v>67945</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+      <c r="A7" s="8">
+        <v>3119721</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1730910</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="F7" t="s">
         <v>359</v>
       </c>
-      <c r="G7" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="9">
+        <v>1938</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>298</v>
+      <c r="I7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>903985</v>
-      </c>
-      <c r="B8">
-        <v>94672</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
+      <c r="A8" s="8">
+        <v>2297565</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1730909</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
         <v>359</v>
       </c>
-      <c r="G8" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="15">
+        <v>1937</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>93</v>
+      <c r="I8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2332553</v>
+        <v>2297760</v>
+      </c>
+      <c r="B9">
+        <v>1814831</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -2272,263 +2285,266 @@
         <v>336</v>
       </c>
       <c r="F9" t="s">
-        <v>359</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1900</v>
+        <v>360</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1937</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>73</v>
+        <v>247</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2033952</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
+      <c r="A10" s="8">
+        <v>3177503</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1699655</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
         <v>359</v>
       </c>
-      <c r="G10" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="9">
+        <v>1936</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>74</v>
+      <c r="I10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1271837</v>
-      </c>
-      <c r="B11">
-        <v>102663</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>101</v>
+      <c r="A11" s="8">
+        <v>2334309</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1622320</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F11" t="s">
         <v>359</v>
       </c>
-      <c r="G11" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="9">
+        <v>1934</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>227</v>
+      <c r="I11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>95527</v>
-      </c>
-      <c r="B12">
-        <v>47980</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>351</v>
+      <c r="A12" s="8">
+        <v>531654</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1622312</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="F12" t="s">
         <v>359</v>
       </c>
-      <c r="G12" s="4">
-        <v>1900</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" s="9">
+        <v>1934</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>175935</v>
+      </c>
+      <c r="B13">
+        <v>1631706</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1934</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>178076</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3046523</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F13" t="s">
-        <v>359</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1905</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>232</v>
+      <c r="J13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>173042</v>
-      </c>
-      <c r="B14">
-        <v>1434394</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" t="s">
-        <v>126</v>
+      <c r="A14" s="8">
+        <v>2276912</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1534566</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F14" t="s">
         <v>359</v>
       </c>
-      <c r="G14" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="9">
+        <v>1932</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" t="s">
-        <v>127</v>
+      <c r="I14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2283849</v>
-      </c>
-      <c r="B15">
-        <v>1434402</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
+      <c r="A15" s="8">
+        <v>2068133</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1580574</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F15" t="s">
         <v>359</v>
       </c>
-      <c r="G15" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="9">
+        <v>1932</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" t="s">
-        <v>209</v>
+      <c r="I15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2286389</v>
+        <v>1957113</v>
       </c>
       <c r="B16">
-        <v>1622315</v>
+        <v>1438341</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G16" s="4">
-        <v>1905</v>
+        <v>1929</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>211</v>
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1232353</v>
+        <v>19821</v>
       </c>
       <c r="B17">
-        <v>1434397</v>
+        <v>1438342</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G17" s="4">
-        <v>1905</v>
+        <v>1929</v>
       </c>
       <c r="H17" t="s">
         <v>10</v>
@@ -2537,30 +2553,30 @@
         <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3128388</v>
+        <v>2062546</v>
       </c>
       <c r="B18">
-        <v>1699658</v>
+        <v>1438343</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="E18" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G18" s="4">
-        <v>1905</v>
+        <v>1929</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
@@ -2569,30 +2585,30 @@
         <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3105900</v>
+        <v>1242759</v>
       </c>
       <c r="B19">
-        <v>1434405</v>
+        <v>1243753</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="E19" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G19" s="4">
-        <v>1905</v>
+        <v>1926</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
@@ -2601,912 +2617,927 @@
         <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3029721</v>
+        <v>1863773</v>
       </c>
       <c r="B20">
-        <v>1699659</v>
+        <v>1287593</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>341</v>
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>323</v>
       </c>
       <c r="F20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G20" s="4">
-        <v>1905</v>
+        <v>1926</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2744518</v>
+        <v>3350719</v>
+      </c>
+      <c r="B21">
+        <v>1287592</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="E21" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="F21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G21" s="4">
-        <v>1905</v>
+        <v>1926</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2744927</v>
+        <v>2987820</v>
       </c>
       <c r="B22">
-        <v>1434393</v>
+        <v>1287594</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F22" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G22" s="4">
-        <v>1905</v>
+        <v>1926</v>
       </c>
       <c r="H22" t="s">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>3146473</v>
+        <v>2065164</v>
       </c>
       <c r="B23">
-        <v>1582093</v>
+        <v>1287591</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G23" s="4">
-        <v>1905</v>
+        <v>1926</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1831171</v>
+        <v>378370</v>
       </c>
       <c r="B24">
-        <v>48762</v>
+        <v>1110865</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="F24" t="s">
         <v>359</v>
       </c>
       <c r="G24" s="4">
-        <v>1905</v>
+        <v>1922</v>
       </c>
       <c r="H24" t="s">
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s">
-        <v>243</v>
+        <v>161</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2285143</v>
+        <v>2104215</v>
       </c>
       <c r="B25">
-        <v>20579</v>
+        <v>1433975</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G25" s="4">
-        <v>1905</v>
+        <v>1921</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
-        <v>210</v>
+        <v>27</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2857016</v>
+        <v>1686082</v>
       </c>
       <c r="B26">
-        <v>1567163</v>
+        <v>1433951</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="F26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G26" s="4">
-        <v>1905</v>
+        <v>1921</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2980305</v>
+        <v>380916</v>
       </c>
       <c r="B27">
-        <v>1622311</v>
+        <v>1010214</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F27" t="s">
         <v>359</v>
       </c>
       <c r="G27" s="4">
-        <v>1905</v>
+        <v>1919</v>
       </c>
       <c r="H27" t="s">
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2958196</v>
+        <v>380917</v>
       </c>
       <c r="B28">
-        <v>1567160</v>
+        <v>1010215</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F28" t="s">
         <v>359</v>
       </c>
       <c r="G28" s="4">
-        <v>1905</v>
+        <v>1919</v>
       </c>
       <c r="H28" t="s">
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" t="s">
-        <v>279</v>
+        <v>36</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>3159752</v>
+        <v>395790</v>
       </c>
       <c r="B29">
-        <v>1567164</v>
+        <v>1010216</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="D29" t="s">
-        <v>291</v>
-      </c>
-      <c r="E29" t="s">
-        <v>291</v>
+        <v>156</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="F29" t="s">
         <v>359</v>
       </c>
       <c r="G29" s="4">
-        <v>1905</v>
+        <v>1919</v>
       </c>
       <c r="H29" t="s">
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>292</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>77079</v>
+        <v>2788940</v>
       </c>
       <c r="B30">
-        <v>1567161</v>
+        <v>1085831</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="F30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G30" s="4">
-        <v>1905</v>
+        <v>1919</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>380916</v>
+        <v>2441249</v>
       </c>
       <c r="B31">
-        <v>1010214</v>
+        <v>1085862</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G31" s="4">
         <v>1919</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>380917</v>
+        <v>2445163</v>
       </c>
       <c r="B32">
-        <v>1010215</v>
+        <v>1085863</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G32" s="4">
         <v>1919</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>395790</v>
+        <v>22480</v>
       </c>
       <c r="B33">
-        <v>1010216</v>
+        <v>1085909</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>340</v>
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>344</v>
       </c>
       <c r="F33" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G33" s="4">
         <v>1919</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>157</v>
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>378370</v>
+        <v>5815</v>
       </c>
       <c r="B34">
-        <v>1110865</v>
+        <v>1085907</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G34" s="4">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>162</v>
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>2276912</v>
-      </c>
-      <c r="B35" s="8">
-        <v>1534566</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>64</v>
+      <c r="A35">
+        <v>3128768</v>
+      </c>
+      <c r="B35">
+        <v>1085843</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F35" t="s">
-        <v>359</v>
-      </c>
-      <c r="G35" s="9">
-        <v>1932</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>79</v>
+        <v>360</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>2068133</v>
-      </c>
-      <c r="B36" s="8">
-        <v>1580574</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>9</v>
+      <c r="A36">
+        <v>3103475</v>
+      </c>
+      <c r="B36">
+        <v>1085855</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F36" t="s">
-        <v>359</v>
-      </c>
-      <c r="G36" s="9">
-        <v>1932</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>12</v>
+        <v>360</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>2334309</v>
-      </c>
-      <c r="B37" s="8">
-        <v>1622320</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>64</v>
+      <c r="A37">
+        <v>2556939</v>
+      </c>
+      <c r="B37">
+        <v>1085834</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="F37" t="s">
-        <v>359</v>
-      </c>
-      <c r="G37" s="9">
-        <v>1934</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>112</v>
+        <v>360</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>531654</v>
-      </c>
-      <c r="B38" s="8">
-        <v>1622312</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="A38">
+        <v>2913087</v>
+      </c>
+      <c r="B38">
+        <v>1085840</v>
+      </c>
+      <c r="C38" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" t="s">
+        <v>360</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1919</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1835590</v>
+      </c>
+      <c r="B39">
+        <v>888531</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>321</v>
+      </c>
+      <c r="F39" t="s">
+        <v>360</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1918</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2773176</v>
+      </c>
+      <c r="B40">
+        <v>888532</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E40" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F38" t="s">
-        <v>359</v>
-      </c>
-      <c r="G38" s="9">
-        <v>1934</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>3177503</v>
-      </c>
-      <c r="B39" s="8">
-        <v>1699655</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" t="s">
-        <v>347</v>
-      </c>
-      <c r="F39" t="s">
-        <v>359</v>
-      </c>
-      <c r="G39" s="9">
-        <v>1936</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>2297565</v>
-      </c>
-      <c r="B40" s="8">
-        <v>1730909</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" t="s">
-        <v>336</v>
-      </c>
       <c r="F40" t="s">
-        <v>359</v>
-      </c>
-      <c r="G40" s="9">
-        <v>1937</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>299</v>
+        <v>360</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1918</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>3091669</v>
-      </c>
-      <c r="B41" s="8">
-        <v>1730908</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" t="s">
-        <v>357</v>
+      <c r="A41" s="6">
+        <v>1128870</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1476220</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
-      </c>
-      <c r="G41" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>276</v>
+        <v>360</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1915</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>1439346</v>
-      </c>
-      <c r="B42" s="8">
-        <v>1730907</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>321</v>
+      <c r="A42" s="2">
+        <v>178076</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3046523</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F42" t="s">
         <v>359</v>
       </c>
-      <c r="G42" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>152</v>
+      <c r="G42" s="13">
+        <v>1905</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>2440478</v>
-      </c>
-      <c r="B43" s="8">
-        <v>1730906</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>64</v>
+      <c r="A43">
+        <v>173042</v>
+      </c>
+      <c r="B43">
+        <v>1434394</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F43" t="s">
         <v>359</v>
       </c>
-      <c r="G43" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H43" s="8" t="s">
+      <c r="G43" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H43" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" t="s">
         <v>108</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>192</v>
+      <c r="J43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>3173931</v>
-      </c>
-      <c r="B44" s="8">
-        <v>1730905</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>188</v>
+      <c r="A44">
+        <v>2283849</v>
+      </c>
+      <c r="B44">
+        <v>1434402</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F44" t="s">
         <v>359</v>
       </c>
-      <c r="G44" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H44" s="8" t="s">
+      <c r="G44" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H44" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>254</v>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
-        <v>3190806</v>
-      </c>
-      <c r="B45" s="8">
-        <v>1730904</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>354</v>
+      <c r="A45">
+        <v>2286389</v>
+      </c>
+      <c r="B45">
+        <v>1622315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>336</v>
       </c>
       <c r="F45" t="s">
         <v>359</v>
       </c>
-      <c r="G45" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H45" s="8" t="s">
+      <c r="G45" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H45" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>309</v>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
-        <v>3119721</v>
-      </c>
-      <c r="B46" s="8">
-        <v>1730910</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>44</v>
+      <c r="A46">
+        <v>1232353</v>
+      </c>
+      <c r="B46">
+        <v>1434397</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F46" t="s">
         <v>359</v>
       </c>
-      <c r="G46" s="9">
-        <v>1938</v>
-      </c>
-      <c r="H46" s="8" t="s">
+      <c r="G46" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H46" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>274</v>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1927186</v>
+        <v>3128388</v>
+      </c>
+      <c r="B47">
+        <v>1699658</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F47" t="s">
         <v>359</v>
       </c>
+      <c r="G47" s="4">
+        <v>1905</v>
+      </c>
       <c r="H47" t="s">
         <v>10</v>
       </c>
       <c r="I47" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>130</v>
+      <c r="J47" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1927164</v>
+        <v>3105900</v>
+      </c>
+      <c r="B48">
+        <v>1434405</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F48" t="s">
         <v>359</v>
       </c>
+      <c r="G48" s="4">
+        <v>1905</v>
+      </c>
       <c r="H48" t="s">
         <v>10</v>
       </c>
@@ -3514,59 +3545,56 @@
         <v>70</v>
       </c>
       <c r="J48" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1355660</v>
+        <v>3029721</v>
       </c>
       <c r="B49">
-        <v>208828</v>
+        <v>1699659</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" t="s">
-        <v>343</v>
+        <v>217</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="F49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G49" s="4">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="H49" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>207</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="J49" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1776538</v>
-      </c>
-      <c r="B50">
-        <v>1836923</v>
+        <v>2744518</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="F50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G50" s="4">
         <v>1905</v>
@@ -3575,30 +3603,30 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>139</v>
+        <v>218</v>
+      </c>
+      <c r="J50" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2330073</v>
+        <v>2744927</v>
       </c>
       <c r="B51">
-        <v>1836929</v>
+        <v>1434393</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G51" s="4">
         <v>1905</v>
@@ -3607,30 +3635,30 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>70</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>71</v>
+        <v>218</v>
+      </c>
+      <c r="J51" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1505123</v>
+        <v>3146473</v>
       </c>
       <c r="B52">
-        <v>1433991</v>
+        <v>1582093</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G52" s="4">
         <v>1905</v>
@@ -3639,18 +3667,18 @@
         <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2175226</v>
+        <v>1831171</v>
       </c>
       <c r="B53">
-        <v>1434014</v>
+        <v>48762</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -3662,219 +3690,219 @@
         <v>321</v>
       </c>
       <c r="F53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G53" s="4">
         <v>1905</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2175227</v>
+        <v>2285143</v>
       </c>
       <c r="B54">
-        <v>1434011</v>
+        <v>20579</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="F54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G54" s="4">
         <v>1905</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="J54" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2175597</v>
+        <v>2857016</v>
       </c>
       <c r="B55">
-        <v>1433976</v>
+        <v>1567163</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="E55" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="F55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G55" s="4">
         <v>1905</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J55" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1730249</v>
+        <v>2980305</v>
       </c>
       <c r="B56">
-        <v>1434002</v>
+        <v>1622311</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F56" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G56" s="4">
         <v>1905</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1732932</v>
+        <v>2958196</v>
       </c>
       <c r="B57">
-        <v>1433979</v>
+        <v>1567160</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G57" s="4">
         <v>1905</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1802336</v>
+        <v>3159752</v>
       </c>
       <c r="B58">
-        <v>1433977</v>
+        <v>1567164</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="E58" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="F58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G58" s="4">
         <v>1905</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1802472</v>
+        <v>77079</v>
       </c>
       <c r="B59">
-        <v>1619159</v>
+        <v>1567161</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="F59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G59" s="4">
         <v>1905</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="J59" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1803281</v>
+        <v>1776538</v>
       </c>
       <c r="B60">
-        <v>1433978</v>
+        <v>1836923</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -3892,30 +3920,30 @@
         <v>1905</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" t="s">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1712928</v>
+        <v>2330073</v>
       </c>
       <c r="B61">
-        <v>1433984</v>
+        <v>1836929</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="F61" t="s">
         <v>360</v>
@@ -3924,30 +3952,30 @@
         <v>1905</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1713180</v>
+        <v>1505123</v>
       </c>
       <c r="B62">
-        <v>1434013</v>
+        <v>1433991</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F62" t="s">
         <v>360</v>
@@ -3962,15 +3990,15 @@
         <v>27</v>
       </c>
       <c r="J62" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1830356</v>
+        <v>2175226</v>
       </c>
       <c r="B63">
-        <v>1433992</v>
+        <v>1434014</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -3994,24 +4022,24 @@
         <v>27</v>
       </c>
       <c r="J63" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2903965</v>
+        <v>2175227</v>
       </c>
       <c r="B64">
-        <v>1433998</v>
+        <v>1434011</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F64" t="s">
         <v>360</v>
@@ -4026,24 +4054,24 @@
         <v>27</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2910828</v>
+        <v>2175597</v>
       </c>
       <c r="B65">
-        <v>1434018</v>
+        <v>1433976</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F65" t="s">
         <v>360</v>
@@ -4058,56 +4086,56 @@
         <v>27</v>
       </c>
       <c r="J65" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>178076</v>
-      </c>
-      <c r="B66" s="2">
-        <v>3046523</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>329</v>
+      <c r="A66">
+        <v>1730249</v>
+      </c>
+      <c r="B66">
+        <v>1434002</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>321</v>
       </c>
       <c r="F66" t="s">
         <v>360</v>
       </c>
-      <c r="G66" s="13">
-        <v>1905</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I66" s="2" t="s">
+      <c r="G66" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
         <v>27</v>
       </c>
-      <c r="J66" s="14" t="s">
-        <v>232</v>
+      <c r="J66" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2985124</v>
+        <v>1732932</v>
       </c>
       <c r="B67">
-        <v>1434024</v>
+        <v>1433979</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F67" t="s">
         <v>360</v>
@@ -4122,24 +4150,24 @@
         <v>27</v>
       </c>
       <c r="J67" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2985125</v>
+        <v>1802336</v>
       </c>
       <c r="B68">
-        <v>1434010</v>
+        <v>1433977</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F68" t="s">
         <v>360</v>
@@ -4154,24 +4182,24 @@
         <v>27</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2990780</v>
+        <v>1802472</v>
       </c>
       <c r="B69">
-        <v>1085844</v>
+        <v>1619159</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="F69" t="s">
         <v>360</v>
@@ -4185,25 +4213,25 @@
       <c r="I69" t="s">
         <v>27</v>
       </c>
-      <c r="J69" t="s">
-        <v>305</v>
+      <c r="J69" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2328565</v>
+        <v>1803281</v>
       </c>
       <c r="B70">
-        <v>1085870</v>
+        <v>1433978</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F70" t="s">
         <v>360</v>
@@ -4218,24 +4246,24 @@
         <v>27</v>
       </c>
       <c r="J70" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2331370</v>
+        <v>1712928</v>
       </c>
       <c r="B71">
-        <v>1085868</v>
+        <v>1433984</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F71" t="s">
         <v>360</v>
@@ -4249,25 +4277,25 @@
       <c r="I71" t="s">
         <v>27</v>
       </c>
-      <c r="J71" t="s">
-        <v>72</v>
+      <c r="J71" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2042391</v>
+        <v>1713180</v>
       </c>
       <c r="B72">
-        <v>1085866</v>
+        <v>1434013</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F72" t="s">
         <v>360</v>
@@ -4282,24 +4310,24 @@
         <v>27</v>
       </c>
       <c r="J72" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2042629</v>
+        <v>1830356</v>
       </c>
       <c r="B73">
-        <v>1433995</v>
+        <v>1433992</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F73" t="s">
         <v>360</v>
@@ -4314,24 +4342,24 @@
         <v>27</v>
       </c>
       <c r="J73" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2042630</v>
+        <v>2903965</v>
       </c>
       <c r="B74">
-        <v>1434015</v>
+        <v>1433998</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F74" t="s">
         <v>360</v>
@@ -4345,25 +4373,25 @@
       <c r="I74" t="s">
         <v>27</v>
       </c>
-      <c r="J74" t="s">
-        <v>181</v>
+      <c r="J74" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2040526</v>
+        <v>2910828</v>
       </c>
       <c r="B75">
-        <v>1085867</v>
+        <v>1434018</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="E75" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F75" t="s">
         <v>360</v>
@@ -4378,56 +4406,56 @@
         <v>27</v>
       </c>
       <c r="J75" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2445158</v>
-      </c>
-      <c r="B76">
-        <v>1085872</v>
-      </c>
-      <c r="C76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" t="s">
-        <v>336</v>
+      <c r="A76" s="2">
+        <v>178076</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3046523</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F76" t="s">
         <v>360</v>
       </c>
-      <c r="G76" s="4">
-        <v>1905</v>
-      </c>
-      <c r="H76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="G76" s="13">
+        <v>1905</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J76" t="s">
-        <v>310</v>
+      <c r="J76" s="14" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>3238042</v>
+        <v>2985124</v>
       </c>
       <c r="B77">
-        <v>1433983</v>
+        <v>1434024</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F77" t="s">
         <v>360</v>
@@ -4442,24 +4470,24 @@
         <v>27</v>
       </c>
       <c r="J77" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>3237292</v>
+        <v>2985125</v>
       </c>
       <c r="B78">
-        <v>1085842</v>
+        <v>1434010</v>
       </c>
       <c r="C78" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F78" t="s">
         <v>360</v>
@@ -4474,24 +4502,24 @@
         <v>27</v>
       </c>
       <c r="J78" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>3237568</v>
+        <v>2990780</v>
       </c>
       <c r="B79">
-        <v>1433999</v>
+        <v>1085844</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F79" t="s">
         <v>360</v>
@@ -4506,24 +4534,24 @@
         <v>27</v>
       </c>
       <c r="J79" t="s">
-        <v>172</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>3187543</v>
+        <v>2328565</v>
       </c>
       <c r="B80">
-        <v>1434006</v>
+        <v>1085870</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="E80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F80" t="s">
         <v>360</v>
@@ -4538,24 +4566,24 @@
         <v>27</v>
       </c>
       <c r="J80" t="s">
-        <v>250</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>3187686</v>
+        <v>2331370</v>
       </c>
       <c r="B81">
-        <v>1434007</v>
+        <v>1085868</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="E81" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F81" t="s">
         <v>360</v>
@@ -4570,24 +4598,24 @@
         <v>27</v>
       </c>
       <c r="J81" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2064083</v>
+        <v>2042391</v>
       </c>
       <c r="B82">
-        <v>1433993</v>
+        <v>1085866</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E82" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F82" t="s">
         <v>360</v>
@@ -4602,21 +4630,24 @@
         <v>27</v>
       </c>
       <c r="J82" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2744813</v>
+        <v>2042629</v>
+      </c>
+      <c r="B83">
+        <v>1433995</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E83" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F83" t="s">
         <v>360</v>
@@ -4631,24 +4662,24 @@
         <v>27</v>
       </c>
       <c r="J83" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>3123158</v>
+        <v>2042630</v>
       </c>
       <c r="B84">
-        <v>1434019</v>
+        <v>1434015</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D84" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E84" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F84" t="s">
         <v>360</v>
@@ -4663,24 +4694,24 @@
         <v>27</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>3011436</v>
+        <v>2040526</v>
       </c>
       <c r="B85">
-        <v>1433985</v>
+        <v>1085867</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
       <c r="E85" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="F85" t="s">
         <v>360</v>
@@ -4695,24 +4726,24 @@
         <v>27</v>
       </c>
       <c r="J85" t="s">
-        <v>314</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1756012</v>
+        <v>2445158</v>
       </c>
       <c r="B86">
-        <v>1534410</v>
+        <v>1085872</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E86" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="F86" t="s">
         <v>360</v>
@@ -4721,30 +4752,30 @@
         <v>1905</v>
       </c>
       <c r="H86" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="J86" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>2307982</v>
+        <v>3238042</v>
       </c>
       <c r="B87">
-        <v>1631697</v>
+        <v>1433983</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D87" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F87" t="s">
         <v>360</v>
@@ -4753,30 +4784,30 @@
         <v>1905</v>
       </c>
       <c r="H87" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="J87" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>991574</v>
+        <v>3237292</v>
       </c>
       <c r="B88">
-        <v>1534409</v>
+        <v>1085842</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D88" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F88" t="s">
         <v>360</v>
@@ -4785,30 +4816,30 @@
         <v>1905</v>
       </c>
       <c r="H88" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I88" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="J88" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>77141</v>
+        <v>3237568</v>
       </c>
       <c r="B89">
-        <v>1631700</v>
+        <v>1433999</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F89" t="s">
         <v>360</v>
@@ -4817,30 +4848,30 @@
         <v>1905</v>
       </c>
       <c r="H89" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="J89" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1505093</v>
+        <v>3187543</v>
       </c>
       <c r="B90">
-        <v>1085903</v>
+        <v>1434006</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="E90" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F90" t="s">
         <v>360</v>
@@ -4852,27 +4883,27 @@
         <v>23</v>
       </c>
       <c r="I90" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J90" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>2175211</v>
+        <v>3187686</v>
       </c>
       <c r="B91">
-        <v>1085826</v>
+        <v>1434007</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="E91" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="F91" t="s">
         <v>360</v>
@@ -4884,27 +4915,27 @@
         <v>23</v>
       </c>
       <c r="I91" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J91" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>2175229</v>
+        <v>2064083</v>
       </c>
       <c r="B92">
-        <v>888543</v>
+        <v>1433993</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="F92" t="s">
         <v>360</v>
@@ -4916,27 +4947,24 @@
         <v>23</v>
       </c>
       <c r="I92" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J92" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>2175598</v>
-      </c>
-      <c r="B93">
-        <v>1085825</v>
+        <v>2744813</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="F93" t="s">
         <v>360</v>
@@ -4948,27 +4976,27 @@
         <v>23</v>
       </c>
       <c r="I93" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J93" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>2175599</v>
+        <v>3123158</v>
       </c>
       <c r="B94">
-        <v>1085824</v>
+        <v>1434019</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E94" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="F94" t="s">
         <v>360</v>
@@ -4980,27 +5008,27 @@
         <v>23</v>
       </c>
       <c r="I94" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J94" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1734346</v>
+        <v>3011436</v>
       </c>
       <c r="B95">
-        <v>1085810</v>
+        <v>1433985</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="E95" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="F95" t="s">
         <v>360</v>
@@ -5012,18 +5040,18 @@
         <v>23</v>
       </c>
       <c r="I95" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1731068</v>
+        <v>1756012</v>
       </c>
       <c r="B96">
-        <v>1085812</v>
+        <v>1534410</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -5041,30 +5069,30 @@
         <v>1905</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I96" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1816416</v>
+        <v>2307982</v>
       </c>
       <c r="B97">
-        <v>1085809</v>
+        <v>1631697</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E97" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="F97" t="s">
         <v>360</v>
@@ -5073,30 +5101,30 @@
         <v>1905</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I97" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="J97" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>2177130</v>
+        <v>991574</v>
       </c>
       <c r="B98">
-        <v>1085823</v>
+        <v>1534409</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="F98" t="s">
         <v>360</v>
@@ -5105,30 +5133,30 @@
         <v>1905</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I98" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="J98" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1710400</v>
+        <v>77141</v>
       </c>
       <c r="B99">
-        <v>1085817</v>
+        <v>1631700</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E99" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="F99" t="s">
         <v>360</v>
@@ -5137,30 +5165,30 @@
         <v>1905</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I99" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="J99" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1710549</v>
+        <v>1505093</v>
       </c>
       <c r="B100">
-        <v>1085816</v>
+        <v>1085903</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E100" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F100" t="s">
         <v>360</v>
@@ -5175,15 +5203,15 @@
         <v>24</v>
       </c>
       <c r="J100" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1710812</v>
+        <v>2175211</v>
       </c>
       <c r="B101">
-        <v>1085819</v>
+        <v>1085826</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
@@ -5207,15 +5235,15 @@
         <v>24</v>
       </c>
       <c r="J101" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1711211</v>
+        <v>2175229</v>
       </c>
       <c r="B102">
-        <v>1433959</v>
+        <v>888543</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
@@ -5239,15 +5267,15 @@
         <v>24</v>
       </c>
       <c r="J102" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1712924</v>
+        <v>2175598</v>
       </c>
       <c r="B103">
-        <v>1085818</v>
+        <v>1085825</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -5271,15 +5299,15 @@
         <v>24</v>
       </c>
       <c r="J103" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1712952</v>
+        <v>2175599</v>
       </c>
       <c r="B104">
-        <v>1433960</v>
+        <v>1085824</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
@@ -5303,15 +5331,15 @@
         <v>24</v>
       </c>
       <c r="J104" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1712953</v>
+        <v>1734346</v>
       </c>
       <c r="B105">
-        <v>1433961</v>
+        <v>1085810</v>
       </c>
       <c r="C105" t="s">
         <v>17</v>
@@ -5335,15 +5363,15 @@
         <v>24</v>
       </c>
       <c r="J105" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1706262</v>
+        <v>1731068</v>
       </c>
       <c r="B106">
-        <v>1085924</v>
+        <v>1085812</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
@@ -5367,15 +5395,15 @@
         <v>24</v>
       </c>
       <c r="J106" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>2180102</v>
+        <v>1816416</v>
       </c>
       <c r="B107">
-        <v>1085822</v>
+        <v>1085809</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -5399,15 +5427,15 @@
         <v>24</v>
       </c>
       <c r="J107" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1830546</v>
+        <v>2177130</v>
       </c>
       <c r="B108">
-        <v>1085815</v>
+        <v>1085823</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
@@ -5431,15 +5459,15 @@
         <v>24</v>
       </c>
       <c r="J108" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1830931</v>
+        <v>1710400</v>
       </c>
       <c r="B109">
-        <v>1085813</v>
+        <v>1085817</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
@@ -5463,15 +5491,15 @@
         <v>24</v>
       </c>
       <c r="J109" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1824616</v>
+        <v>1710549</v>
       </c>
       <c r="B110">
-        <v>1085808</v>
+        <v>1085816</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
@@ -5495,15 +5523,15 @@
         <v>24</v>
       </c>
       <c r="J110" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>2154819</v>
+        <v>1710812</v>
       </c>
       <c r="B111">
-        <v>1085811</v>
+        <v>1085819</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
@@ -5527,15 +5555,15 @@
         <v>24</v>
       </c>
       <c r="J111" t="s">
-        <v>284</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1834613</v>
+        <v>1711211</v>
       </c>
       <c r="B112">
-        <v>1433966</v>
+        <v>1433959</v>
       </c>
       <c r="C112" t="s">
         <v>17</v>
@@ -5559,15 +5587,15 @@
         <v>24</v>
       </c>
       <c r="J112" t="s">
-        <v>285</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1686080</v>
+        <v>1712924</v>
       </c>
       <c r="B113">
-        <v>1085821</v>
+        <v>1085818</v>
       </c>
       <c r="C113" t="s">
         <v>17</v>
@@ -5591,15 +5619,15 @@
         <v>24</v>
       </c>
       <c r="J113" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1863109</v>
+        <v>1712952</v>
       </c>
       <c r="B114">
-        <v>1433950</v>
+        <v>1433960</v>
       </c>
       <c r="C114" t="s">
         <v>17</v>
@@ -5623,24 +5651,24 @@
         <v>24</v>
       </c>
       <c r="J114" t="s">
-        <v>290</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1529758</v>
+        <v>1712953</v>
       </c>
       <c r="B115">
-        <v>1085906</v>
+        <v>1433961</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E115" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F115" t="s">
         <v>360</v>
@@ -5655,24 +5683,24 @@
         <v>24</v>
       </c>
       <c r="J115" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>2910827</v>
+        <v>1706262</v>
       </c>
       <c r="B116">
-        <v>1433962</v>
+        <v>1085924</v>
       </c>
       <c r="C116" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="E116" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F116" t="s">
         <v>360</v>
@@ -5687,24 +5715,24 @@
         <v>24</v>
       </c>
       <c r="J116" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>903811</v>
+        <v>2180102</v>
       </c>
       <c r="B117">
-        <v>917978</v>
+        <v>1085822</v>
       </c>
       <c r="C117" t="s">
         <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="E117" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F117" t="s">
         <v>360</v>
@@ -5719,24 +5747,24 @@
         <v>24</v>
       </c>
       <c r="J117" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>492130</v>
+        <v>1830546</v>
       </c>
       <c r="B118">
-        <v>1085829</v>
+        <v>1085815</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="E118" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F118" t="s">
         <v>360</v>
@@ -5751,24 +5779,24 @@
         <v>24</v>
       </c>
       <c r="J118" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>2768245</v>
+        <v>1830931</v>
       </c>
       <c r="B119">
-        <v>1085832</v>
+        <v>1085813</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="E119" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F119" t="s">
         <v>360</v>
@@ -5783,24 +5811,24 @@
         <v>24</v>
       </c>
       <c r="J119" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>2768252</v>
+        <v>1824616</v>
       </c>
       <c r="B120">
-        <v>888533</v>
+        <v>1085808</v>
       </c>
       <c r="C120" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="E120" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F120" t="s">
         <v>360</v>
@@ -5815,24 +5843,24 @@
         <v>24</v>
       </c>
       <c r="J120" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2789372</v>
+        <v>2154819</v>
       </c>
       <c r="B121">
-        <v>1085925</v>
+        <v>1085811</v>
       </c>
       <c r="C121" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="E121" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F121" t="s">
         <v>360</v>
@@ -5847,24 +5875,24 @@
         <v>24</v>
       </c>
       <c r="J121" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2789420</v>
+        <v>1834613</v>
       </c>
       <c r="B122">
-        <v>1085830</v>
+        <v>1433966</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="E122" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F122" t="s">
         <v>360</v>
@@ -5879,24 +5907,24 @@
         <v>24</v>
       </c>
       <c r="J122" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>3099143</v>
+        <v>1686080</v>
       </c>
       <c r="B123">
-        <v>1085857</v>
+        <v>1085821</v>
       </c>
       <c r="C123" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="E123" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F123" t="s">
         <v>360</v>
@@ -5911,24 +5939,24 @@
         <v>24</v>
       </c>
       <c r="J123" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>2077227</v>
+        <v>1863109</v>
       </c>
       <c r="B124">
-        <v>1433956</v>
+        <v>1433950</v>
       </c>
       <c r="C124" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E124" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F124" t="s">
         <v>360</v>
@@ -5943,24 +5971,24 @@
         <v>24</v>
       </c>
       <c r="J124" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1501674</v>
+        <v>1529758</v>
       </c>
       <c r="B125">
-        <v>1085905</v>
+        <v>1085906</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E125" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="F125" t="s">
         <v>360</v>
@@ -5975,24 +6003,24 @@
         <v>24</v>
       </c>
       <c r="J125" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>1557242</v>
+        <v>2910827</v>
       </c>
       <c r="B126">
-        <v>1085904</v>
+        <v>1433962</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D126" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="E126" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F126" t="s">
         <v>360</v>
@@ -6007,24 +6035,24 @@
         <v>24</v>
       </c>
       <c r="J126" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>2981960</v>
+        <v>903811</v>
       </c>
       <c r="B127">
-        <v>1085853</v>
+        <v>917978</v>
       </c>
       <c r="C127" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E127" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F127" t="s">
         <v>360</v>
@@ -6039,24 +6067,24 @@
         <v>24</v>
       </c>
       <c r="J127" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>2980899</v>
+        <v>492130</v>
       </c>
       <c r="B128">
-        <v>1433968</v>
+        <v>1085829</v>
       </c>
       <c r="C128" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E128" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F128" t="s">
         <v>360</v>
@@ -6071,24 +6099,24 @@
         <v>24</v>
       </c>
       <c r="J128" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>2980900</v>
+        <v>2768245</v>
       </c>
       <c r="B129">
-        <v>1085849</v>
+        <v>1085832</v>
       </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="D129" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="E129" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F129" t="s">
         <v>360</v>
@@ -6103,24 +6131,24 @@
         <v>24</v>
       </c>
       <c r="J129" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>2980061</v>
+        <v>2768252</v>
       </c>
       <c r="B130">
-        <v>1085846</v>
+        <v>888533</v>
       </c>
       <c r="C130" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="D130" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="E130" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F130" t="s">
         <v>360</v>
@@ -6135,24 +6163,24 @@
         <v>24</v>
       </c>
       <c r="J130" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>2981362</v>
+        <v>2789372</v>
       </c>
       <c r="B131">
-        <v>1085850</v>
+        <v>1085925</v>
       </c>
       <c r="C131" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="D131" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="E131" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F131" t="s">
         <v>360</v>
@@ -6167,24 +6195,24 @@
         <v>24</v>
       </c>
       <c r="J131" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>2981497</v>
+        <v>2789420</v>
       </c>
       <c r="B132">
-        <v>1085852</v>
+        <v>1085830</v>
       </c>
       <c r="C132" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="D132" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="E132" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F132" t="s">
         <v>360</v>
@@ -6199,24 +6227,24 @@
         <v>24</v>
       </c>
       <c r="J132" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>2981580</v>
+        <v>3099143</v>
       </c>
       <c r="B133">
-        <v>1433967</v>
+        <v>1085857</v>
       </c>
       <c r="C133" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="D133" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="E133" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F133" t="s">
         <v>360</v>
@@ -6231,24 +6259,24 @@
         <v>24</v>
       </c>
       <c r="J133" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>2981582</v>
+        <v>2077227</v>
       </c>
       <c r="B134">
-        <v>1085851</v>
+        <v>1433956</v>
       </c>
       <c r="C134" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D134" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E134" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F134" t="s">
         <v>360</v>
@@ -6263,24 +6291,24 @@
         <v>24</v>
       </c>
       <c r="J134" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>2957512</v>
+        <v>1501674</v>
       </c>
       <c r="B135">
-        <v>1085848</v>
+        <v>1085905</v>
       </c>
       <c r="C135" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="E135" t="s">
-        <v>335</v>
+        <v>135</v>
       </c>
       <c r="F135" t="s">
         <v>360</v>
@@ -6295,24 +6323,24 @@
         <v>24</v>
       </c>
       <c r="J135" t="s">
-        <v>278</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>2987501</v>
+        <v>1557242</v>
       </c>
       <c r="B136">
-        <v>888542</v>
+        <v>1085904</v>
       </c>
       <c r="C136" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="E136" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F136" t="s">
         <v>360</v>
@@ -6327,15 +6355,15 @@
         <v>24</v>
       </c>
       <c r="J136" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>2989552</v>
+        <v>2981960</v>
       </c>
       <c r="B137">
-        <v>1085845</v>
+        <v>1085853</v>
       </c>
       <c r="C137" t="s">
         <v>50</v>
@@ -6359,24 +6387,24 @@
         <v>24</v>
       </c>
       <c r="J137" t="s">
-        <v>304</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>2328602</v>
+        <v>2980899</v>
       </c>
       <c r="B138">
-        <v>1433963</v>
+        <v>1433968</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D138" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F138" t="s">
         <v>360</v>
@@ -6391,24 +6419,24 @@
         <v>24</v>
       </c>
       <c r="J138" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>2329526</v>
+        <v>2980900</v>
       </c>
       <c r="B139">
-        <v>1085869</v>
+        <v>1085849</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D139" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F139" t="s">
         <v>360</v>
@@ -6423,24 +6451,24 @@
         <v>24</v>
       </c>
       <c r="J139" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>2329527</v>
+        <v>2980061</v>
       </c>
       <c r="B140">
-        <v>1085871</v>
+        <v>1085846</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D140" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E140" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F140" t="s">
         <v>360</v>
@@ -6455,24 +6483,24 @@
         <v>24</v>
       </c>
       <c r="J140" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>2042615</v>
+        <v>2981362</v>
       </c>
       <c r="B141">
-        <v>1085864</v>
+        <v>1085850</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D141" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F141" t="s">
         <v>360</v>
@@ -6487,24 +6515,24 @@
         <v>24</v>
       </c>
       <c r="J141" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>2042738</v>
+        <v>2981497</v>
       </c>
       <c r="B142">
-        <v>1085865</v>
+        <v>1085852</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D142" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E142" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F142" t="s">
         <v>360</v>
@@ -6519,24 +6547,24 @@
         <v>24</v>
       </c>
       <c r="J142" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>2039452</v>
+        <v>2981580</v>
       </c>
       <c r="B143">
-        <v>1433970</v>
+        <v>1433967</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D143" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E143" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F143" t="s">
         <v>360</v>
@@ -6551,24 +6579,24 @@
         <v>24</v>
       </c>
       <c r="J143" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>3237561</v>
+        <v>2981582</v>
       </c>
       <c r="B144">
-        <v>1085841</v>
+        <v>1085851</v>
       </c>
       <c r="C144" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D144" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E144" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F144" t="s">
         <v>360</v>
@@ -6583,24 +6611,24 @@
         <v>24</v>
       </c>
       <c r="J144" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1361477</v>
+        <v>2957512</v>
       </c>
       <c r="B145">
-        <v>1085859</v>
+        <v>1085848</v>
       </c>
       <c r="C145" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D145" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E145" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F145" t="s">
         <v>360</v>
@@ -6615,24 +6643,24 @@
         <v>24</v>
       </c>
       <c r="J145" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>1362115</v>
+        <v>2987501</v>
       </c>
       <c r="B146">
-        <v>1085858</v>
+        <v>888542</v>
       </c>
       <c r="C146" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D146" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E146" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F146" t="s">
         <v>360</v>
@@ -6647,24 +6675,24 @@
         <v>24</v>
       </c>
       <c r="J146" t="s">
-        <v>103</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>451236</v>
+        <v>2989552</v>
       </c>
       <c r="B147">
-        <v>888537</v>
+        <v>1085845</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D147" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E147" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F147" t="s">
         <v>360</v>
@@ -6679,24 +6707,24 @@
         <v>24</v>
       </c>
       <c r="J147" t="s">
-        <v>121</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>466849</v>
+        <v>2328602</v>
       </c>
       <c r="B148">
-        <v>1433971</v>
+        <v>1433963</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D148" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E148" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F148" t="s">
         <v>360</v>
@@ -6711,24 +6739,24 @@
         <v>24</v>
       </c>
       <c r="J148" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>6400</v>
+        <v>2329526</v>
       </c>
       <c r="B149">
-        <v>1085914</v>
+        <v>1085869</v>
       </c>
       <c r="C149" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E149" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F149" t="s">
         <v>360</v>
@@ -6743,24 +6771,24 @@
         <v>24</v>
       </c>
       <c r="J149" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>6661</v>
+        <v>2329527</v>
       </c>
       <c r="B150">
-        <v>1085915</v>
+        <v>1085871</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D150" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E150" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F150" t="s">
         <v>360</v>
@@ -6774,25 +6802,25 @@
       <c r="I150" t="s">
         <v>24</v>
       </c>
-      <c r="J150" s="11" t="s">
-        <v>175</v>
+      <c r="J150" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>2067263</v>
+        <v>2042615</v>
       </c>
       <c r="B151">
-        <v>1433952</v>
+        <v>1085864</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E151" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F151" t="s">
         <v>360</v>
@@ -6807,24 +6835,24 @@
         <v>24</v>
       </c>
       <c r="J151" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>3286586</v>
+        <v>2042738</v>
       </c>
       <c r="B152">
-        <v>1085900</v>
+        <v>1085865</v>
       </c>
       <c r="C152" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="D152" t="s">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="E152" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F152" t="s">
         <v>360</v>
@@ -6838,25 +6866,25 @@
       <c r="I152" t="s">
         <v>24</v>
       </c>
-      <c r="J152" s="11" t="s">
-        <v>237</v>
+      <c r="J152" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>3123578</v>
+        <v>2039452</v>
       </c>
       <c r="B153">
-        <v>1433972</v>
+        <v>1433970</v>
       </c>
       <c r="C153" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D153" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E153" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F153" t="s">
         <v>360</v>
@@ -6871,24 +6899,24 @@
         <v>24</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>3119654</v>
+        <v>3237561</v>
       </c>
       <c r="B154">
-        <v>1433953</v>
+        <v>1085841</v>
       </c>
       <c r="C154" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D154" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E154" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F154" t="s">
         <v>360</v>
@@ -6903,24 +6931,24 @@
         <v>24</v>
       </c>
       <c r="J154" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>1487260</v>
+        <v>1361477</v>
       </c>
       <c r="B155">
-        <v>1085916</v>
+        <v>1085859</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D155" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="E155" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F155" t="s">
         <v>360</v>
@@ -6935,24 +6963,24 @@
         <v>24</v>
       </c>
       <c r="J155" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>3103079</v>
+        <v>1362115</v>
       </c>
       <c r="B156">
-        <v>1433957</v>
+        <v>1085858</v>
       </c>
       <c r="C156" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D156" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E156" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F156" t="s">
         <v>360</v>
@@ -6967,24 +6995,24 @@
         <v>24</v>
       </c>
       <c r="J156" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>3104843</v>
+        <v>451236</v>
       </c>
       <c r="B157">
-        <v>1085854</v>
+        <v>888537</v>
       </c>
       <c r="C157" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D157" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="E157" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F157" t="s">
         <v>360</v>
@@ -6999,24 +7027,24 @@
         <v>24</v>
       </c>
       <c r="J157" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>3105168</v>
+        <v>466849</v>
       </c>
       <c r="B158">
-        <v>1085856</v>
+        <v>1433971</v>
       </c>
       <c r="C158" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D158" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="E158" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F158" t="s">
         <v>360</v>
@@ -7030,25 +7058,25 @@
       <c r="I158" t="s">
         <v>24</v>
       </c>
-      <c r="J158" s="11" t="s">
-        <v>233</v>
+      <c r="J158" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>2793495</v>
+        <v>6400</v>
       </c>
       <c r="B159">
-        <v>1085827</v>
+        <v>1085914</v>
       </c>
       <c r="C159" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="D159" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="E159" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="F159" t="s">
         <v>360</v>
@@ -7063,24 +7091,24 @@
         <v>24</v>
       </c>
       <c r="J159" t="s">
-        <v>307</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>3011299</v>
+        <v>6661</v>
       </c>
       <c r="B160">
-        <v>1085860</v>
+        <v>1085915</v>
       </c>
       <c r="C160" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="D160" t="s">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="E160" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F160" t="s">
         <v>360</v>
@@ -7094,25 +7122,25 @@
       <c r="I160" t="s">
         <v>24</v>
       </c>
-      <c r="J160" t="s">
-        <v>313</v>
+      <c r="J160" s="11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>3012117</v>
+        <v>2067263</v>
       </c>
       <c r="B161">
-        <v>1433969</v>
+        <v>1433952</v>
       </c>
       <c r="C161" t="s">
-        <v>216</v>
+        <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>312</v>
+        <v>9</v>
       </c>
       <c r="E161" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F161" t="s">
         <v>360</v>
@@ -7127,24 +7155,24 @@
         <v>24</v>
       </c>
       <c r="J161" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>3012424</v>
+        <v>3286586</v>
       </c>
       <c r="B162">
-        <v>1085861</v>
+        <v>1085900</v>
       </c>
       <c r="C162" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D162" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="E162" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F162" t="s">
         <v>360</v>
@@ -7158,25 +7186,25 @@
       <c r="I162" t="s">
         <v>24</v>
       </c>
-      <c r="J162" t="s">
-        <v>317</v>
+      <c r="J162" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>2799515</v>
+        <v>3123578</v>
       </c>
       <c r="B163">
-        <v>1836928</v>
+        <v>1433972</v>
       </c>
       <c r="C163" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D163" t="s">
-        <v>119</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>339</v>
+        <v>44</v>
+      </c>
+      <c r="E163" t="s">
+        <v>349</v>
       </c>
       <c r="F163" t="s">
         <v>360</v>
@@ -7185,30 +7213,30 @@
         <v>1905</v>
       </c>
       <c r="H163" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I163" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="J163" t="s">
-        <v>282</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>3158105</v>
+        <v>3119654</v>
       </c>
       <c r="B164">
-        <v>1534408</v>
+        <v>1433953</v>
       </c>
       <c r="C164" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D164" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="E164" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F164" t="s">
         <v>360</v>
@@ -7217,30 +7245,30 @@
         <v>1905</v>
       </c>
       <c r="H164" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I164" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="J164" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>76824</v>
+        <v>1487260</v>
       </c>
       <c r="B165">
-        <v>1085910</v>
+        <v>1085916</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E165" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F165" t="s">
         <v>360</v>
@@ -7252,27 +7280,27 @@
         <v>23</v>
       </c>
       <c r="I165" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="J165" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>1711046</v>
+        <v>3103079</v>
       </c>
       <c r="B166">
-        <v>1433974</v>
+        <v>1433957</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F166" t="s">
         <v>360</v>
@@ -7284,27 +7312,27 @@
         <v>23</v>
       </c>
       <c r="I166" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="J166" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>903965</v>
+        <v>3104843</v>
       </c>
       <c r="B167">
-        <v>1631703</v>
+        <v>1085854</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D167" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E167" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F167" t="s">
         <v>360</v>
@@ -7313,30 +7341,30 @@
         <v>1905</v>
       </c>
       <c r="H167" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I167" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="J167" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>1271916</v>
+        <v>3105168</v>
       </c>
       <c r="B168">
-        <v>1534407</v>
+        <v>1085856</v>
       </c>
       <c r="C168" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D168" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E168" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F168" t="s">
         <v>360</v>
@@ -7345,30 +7373,30 @@
         <v>1905</v>
       </c>
       <c r="H168" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I168" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="J168" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>1272253</v>
+        <v>2793495</v>
       </c>
       <c r="B169">
-        <v>1534406</v>
+        <v>1085827</v>
       </c>
       <c r="C169" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="D169" t="s">
-        <v>101</v>
+        <v>306</v>
       </c>
       <c r="E169" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
         <v>360</v>
@@ -7377,27 +7405,30 @@
         <v>1905</v>
       </c>
       <c r="H169" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I169" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="J169" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>2744553</v>
+        <v>3011299</v>
+      </c>
+      <c r="B170">
+        <v>1085860</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>312</v>
       </c>
       <c r="E170" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="F170" t="s">
         <v>360</v>
@@ -7406,30 +7437,30 @@
         <v>1905</v>
       </c>
       <c r="H170" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I170" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="J170" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>2063288</v>
+        <v>3012117</v>
       </c>
       <c r="B171">
-        <v>1631704</v>
+        <v>1433969</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>312</v>
       </c>
       <c r="E171" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="F171" t="s">
         <v>360</v>
@@ -7438,30 +7469,30 @@
         <v>1905</v>
       </c>
       <c r="H171" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I171" t="s">
-        <v>91</v>
-      </c>
-      <c r="J171" s="11" t="s">
-        <v>261</v>
+        <v>24</v>
+      </c>
+      <c r="J171" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>3179075</v>
+        <v>3012424</v>
       </c>
       <c r="B172">
-        <v>1534405</v>
+        <v>1085861</v>
       </c>
       <c r="C172" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="D172" t="s">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c r="E172" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F172" t="s">
         <v>360</v>
@@ -7470,437 +7501,434 @@
         <v>1905</v>
       </c>
       <c r="H172" t="s">
+        <v>23</v>
+      </c>
+      <c r="I172" t="s">
+        <v>24</v>
+      </c>
+      <c r="J172" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>2799515</v>
+      </c>
+      <c r="B173">
+        <v>1836928</v>
+      </c>
+      <c r="C173" t="s">
+        <v>80</v>
+      </c>
+      <c r="D173" t="s">
+        <v>119</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F173" t="s">
+        <v>360</v>
+      </c>
+      <c r="G173" s="4">
+        <v>1905</v>
+      </c>
+      <c r="H173" t="s">
         <v>10</v>
       </c>
-      <c r="I172" t="s">
-        <v>91</v>
-      </c>
-      <c r="J172" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="6">
-        <v>1128870</v>
-      </c>
-      <c r="B173" s="6">
-        <v>1476220</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F173" t="s">
-        <v>360</v>
-      </c>
-      <c r="G173" s="7">
-        <v>1915</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I173" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J173" s="12" t="s">
-        <v>84</v>
+      <c r="I173" t="s">
+        <v>70</v>
+      </c>
+      <c r="J173" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>1835590</v>
+        <v>3158105</v>
       </c>
       <c r="B174">
-        <v>888531</v>
+        <v>1534408</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D174" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="E174" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="F174" t="s">
         <v>360</v>
       </c>
       <c r="G174" s="4">
-        <v>1918</v>
+        <v>1905</v>
       </c>
       <c r="H174" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I174" t="s">
-        <v>24</v>
-      </c>
-      <c r="J174" s="11" t="s">
-        <v>286</v>
+        <v>247</v>
+      </c>
+      <c r="J174" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>2773176</v>
+        <v>76824</v>
       </c>
       <c r="B175">
-        <v>888532</v>
+        <v>1085910</v>
       </c>
       <c r="C175" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D175" t="s">
-        <v>119</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>339</v>
+        <v>40</v>
+      </c>
+      <c r="E175" t="s">
+        <v>344</v>
       </c>
       <c r="F175" t="s">
         <v>360</v>
       </c>
       <c r="G175" s="4">
-        <v>1918</v>
+        <v>1905</v>
       </c>
       <c r="H175" t="s">
         <v>23</v>
       </c>
       <c r="I175" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="J175" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>2788940</v>
+        <v>1711046</v>
       </c>
       <c r="B176">
-        <v>1085831</v>
+        <v>1433974</v>
       </c>
       <c r="C176" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="D176" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="E176" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F176" t="s">
         <v>360</v>
       </c>
       <c r="G176" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H176" t="s">
         <v>23</v>
       </c>
       <c r="I176" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="J176" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>2441249</v>
+        <v>903965</v>
       </c>
       <c r="B177">
-        <v>1085862</v>
+        <v>1631703</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E177" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F177" t="s">
         <v>360</v>
       </c>
       <c r="G177" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H177" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I177" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="J177" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>2445163</v>
+        <v>1271916</v>
       </c>
       <c r="B178">
-        <v>1085863</v>
+        <v>1534407</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D178" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E178" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
         <v>360</v>
       </c>
       <c r="G178" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H178" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I178" t="s">
-        <v>27</v>
-      </c>
-      <c r="J178" t="s">
-        <v>311</v>
+        <v>91</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>22480</v>
+        <v>1272253</v>
       </c>
       <c r="B179">
-        <v>1085909</v>
+        <v>1534406</v>
       </c>
       <c r="C179" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="D179" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="E179" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
         <v>360</v>
       </c>
       <c r="G179" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H179" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I179" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="J179" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>5815</v>
-      </c>
-      <c r="B180">
-        <v>1085907</v>
+        <v>2744553</v>
       </c>
       <c r="C180" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
         <v>360</v>
       </c>
       <c r="G180" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H180" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I180" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="J180" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>3128768</v>
+        <v>2063288</v>
       </c>
       <c r="B181">
-        <v>1085843</v>
+        <v>1631704</v>
       </c>
       <c r="C181" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F181" t="s">
         <v>360</v>
       </c>
       <c r="G181" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H181" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I181" t="s">
-        <v>27</v>
-      </c>
-      <c r="J181" t="s">
-        <v>138</v>
+        <v>91</v>
+      </c>
+      <c r="J181" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>3103475</v>
+        <v>3179075</v>
       </c>
       <c r="B182">
-        <v>1085855</v>
+        <v>1534405</v>
       </c>
       <c r="C182" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D182" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
         <v>360</v>
       </c>
       <c r="G182" s="4">
-        <v>1919</v>
+        <v>1905</v>
       </c>
       <c r="H182" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I182" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="J182" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>2556939</v>
+        <v>1160457</v>
       </c>
       <c r="B183">
-        <v>1085834</v>
+        <v>99194</v>
       </c>
       <c r="C183" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="D183" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="E183" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G183" s="4">
-        <v>1919</v>
+        <v>1900</v>
       </c>
       <c r="H183" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I183" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="J183" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
     </row>
     <row r="184" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>2913087</v>
+        <v>3089925</v>
       </c>
       <c r="B184">
-        <v>1085840</v>
+        <v>80416</v>
       </c>
       <c r="C184" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="D184" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E184" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G184" s="4">
-        <v>1919</v>
+        <v>1900</v>
       </c>
       <c r="H184" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I184" t="s">
-        <v>24</v>
-      </c>
-      <c r="J184" t="s">
-        <v>221</v>
+        <v>19</v>
+      </c>
+      <c r="J184" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="185" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>2104215</v>
+        <v>3088994</v>
       </c>
       <c r="B185">
-        <v>1433975</v>
+        <v>80403</v>
       </c>
       <c r="C185" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D185" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E185" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G185" s="4">
-        <v>1921</v>
+        <v>1900</v>
       </c>
       <c r="H185" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I185" t="s">
-        <v>27</v>
-      </c>
-      <c r="J185" s="11" t="s">
-        <v>98</v>
+        <v>19</v>
+      </c>
+      <c r="J185" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="186" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>1686082</v>
+        <v>1805301</v>
       </c>
       <c r="B186">
-        <v>1433951</v>
+        <v>27505</v>
       </c>
       <c r="C186" t="s">
         <v>17</v>
@@ -7912,339 +7940,320 @@
         <v>321</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G186" s="4">
-        <v>1921</v>
+        <v>1900</v>
       </c>
       <c r="H186" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I186" t="s">
-        <v>24</v>
-      </c>
-      <c r="J186" t="s">
-        <v>289</v>
+        <v>19</v>
+      </c>
+      <c r="J186" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>1242759</v>
-      </c>
-      <c r="B187">
-        <v>1243753</v>
+        <v>2180001</v>
       </c>
       <c r="C187" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="D187" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="E187" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G187" s="4">
-        <v>1926</v>
+        <v>1900</v>
       </c>
       <c r="H187" t="s">
         <v>10</v>
       </c>
       <c r="I187" t="s">
-        <v>70</v>
-      </c>
-      <c r="J187" t="s">
-        <v>215</v>
+        <v>19</v>
+      </c>
+      <c r="J187" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>1863773</v>
+        <v>1695516</v>
       </c>
       <c r="B188">
-        <v>1287593</v>
+        <v>67945</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D188" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E188" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G188" s="4">
-        <v>1926</v>
+        <v>1900</v>
       </c>
       <c r="H188" t="s">
         <v>10</v>
       </c>
       <c r="I188" t="s">
-        <v>15</v>
-      </c>
-      <c r="J188" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="J188" s="11" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>3350719</v>
+        <v>903985</v>
       </c>
       <c r="B189">
-        <v>1287592</v>
+        <v>94672</v>
       </c>
       <c r="C189" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="D189" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="E189" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G189" s="4">
-        <v>1926</v>
+        <v>1900</v>
       </c>
       <c r="H189" t="s">
         <v>10</v>
       </c>
       <c r="I189" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J189" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
     </row>
     <row r="190" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>2987820</v>
-      </c>
-      <c r="B190">
-        <v>1287594</v>
-      </c>
+        <v>2332553</v>
+      </c>
+      <c r="B190"/>
       <c r="C190" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D190" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E190" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G190" s="4">
-        <v>1926</v>
+        <v>1900</v>
       </c>
       <c r="H190" t="s">
         <v>10</v>
       </c>
       <c r="I190" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J190" t="s">
-        <v>303</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>2065164</v>
-      </c>
-      <c r="B191">
-        <v>1287591</v>
-      </c>
+        <v>2033952</v>
+      </c>
+      <c r="B191"/>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E191" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G191" s="4">
-        <v>1926</v>
+        <v>1900</v>
       </c>
       <c r="H191" t="s">
         <v>10</v>
       </c>
       <c r="I191" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J191" s="11" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>1957113</v>
+        <v>1271837</v>
       </c>
       <c r="B192">
-        <v>1438341</v>
+        <v>102663</v>
       </c>
       <c r="C192" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D192" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E192" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F192" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G192" s="4">
-        <v>1929</v>
+        <v>1900</v>
       </c>
       <c r="H192" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I192" t="s">
-        <v>27</v>
-      </c>
-      <c r="J192" t="s">
-        <v>171</v>
+        <v>19</v>
+      </c>
+      <c r="J192" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>19821</v>
+        <v>95527</v>
       </c>
       <c r="B193">
-        <v>1438342</v>
+        <v>47980</v>
       </c>
       <c r="C193" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D193" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E193" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G193" s="4">
-        <v>1929</v>
+        <v>1900</v>
       </c>
       <c r="H193" t="s">
         <v>10</v>
       </c>
       <c r="I193" t="s">
-        <v>70</v>
-      </c>
-      <c r="J193" t="s">
-        <v>140</v>
+        <v>19</v>
+      </c>
+      <c r="J193" s="11" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="194" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>2062546</v>
+        <v>1355660</v>
       </c>
       <c r="B194">
-        <v>1438343</v>
+        <v>208828</v>
       </c>
       <c r="C194" t="s">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="D194" t="s">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c r="E194" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F194" t="s">
         <v>360</v>
       </c>
       <c r="G194" s="4">
-        <v>1929</v>
+        <v>1900</v>
       </c>
       <c r="H194" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="I194" t="s">
-        <v>70</v>
-      </c>
-      <c r="J194" t="s">
-        <v>297</v>
+        <v>207</v>
+      </c>
+      <c r="J194" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>175935</v>
-      </c>
-      <c r="B195">
-        <v>1631706</v>
+        <v>1927186</v>
       </c>
       <c r="C195" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="F195" t="s">
-        <v>360</v>
-      </c>
-      <c r="G195" s="4">
-        <v>1934</v>
+        <v>359</v>
       </c>
       <c r="H195" t="s">
         <v>10</v>
       </c>
       <c r="I195" t="s">
-        <v>19</v>
-      </c>
-      <c r="J195" t="s">
-        <v>231</v>
+        <v>70</v>
+      </c>
+      <c r="J195" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>2297760</v>
-      </c>
-      <c r="B196">
-        <v>1814831</v>
+        <v>1927164</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F196" t="s">
-        <v>360</v>
-      </c>
-      <c r="G196" s="4">
-        <v>1937</v>
+        <v>359</v>
       </c>
       <c r="H196" t="s">
         <v>10</v>
       </c>
       <c r="I196" t="s">
-        <v>247</v>
-      </c>
-      <c r="J196" s="11" t="s">
-        <v>300</v>
+        <v>70</v>
+      </c>
+      <c r="J196" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
@@ -8938,55 +8947,55 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J220">
-    <sortCondition ref="F1"/>
+  <sortState ref="A2:J220">
+    <sortCondition descending="1" ref="G2:G220"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J36" r:id="rId1" xr:uid="{4BAA63AF-E622-C54C-884F-52F9B4EA4CB2}"/>
+    <hyperlink ref="J15" r:id="rId1" xr:uid="{4BAA63AF-E622-C54C-884F-52F9B4EA4CB2}"/>
     <hyperlink ref="J208" r:id="rId2" xr:uid="{C3C5E323-7DF9-5041-8ABA-0CFD95DD4199}"/>
-    <hyperlink ref="J45" r:id="rId3" xr:uid="{75172149-E408-3245-9BB3-68C6B51F20EF}"/>
-    <hyperlink ref="J46" r:id="rId4" xr:uid="{5138CFFE-2949-0B49-98A6-BFC7536BB993}"/>
-    <hyperlink ref="J13" r:id="rId5" xr:uid="{EA585D9F-341A-C642-A566-117E27197C4C}"/>
-    <hyperlink ref="J173" r:id="rId6" xr:uid="{19EAB894-4D24-EB4F-A969-6FAE0100D044}"/>
-    <hyperlink ref="J40" r:id="rId7" xr:uid="{52766A8E-05AE-B54D-8AC2-0AC1BF8FAF7F}"/>
-    <hyperlink ref="J196" r:id="rId8" xr:uid="{976C53F4-7631-DC46-9B10-79FF5DD69D56}"/>
-    <hyperlink ref="J31" r:id="rId9" xr:uid="{D4541E93-BC9A-9943-A270-15E30063C8D2}"/>
-    <hyperlink ref="J27" r:id="rId10" xr:uid="{8EFAA8D1-7E41-6247-B066-317CB051BC1C}"/>
-    <hyperlink ref="J66" r:id="rId11" xr:uid="{A64717BC-8D4E-1148-A379-CC97141A6946}"/>
-    <hyperlink ref="J49" r:id="rId12" xr:uid="{AA3642F3-1A69-EF43-B581-3AF5508F29E8}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{75172149-E408-3245-9BB3-68C6B51F20EF}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{5138CFFE-2949-0B49-98A6-BFC7536BB993}"/>
+    <hyperlink ref="J42" r:id="rId5" xr:uid="{EA585D9F-341A-C642-A566-117E27197C4C}"/>
+    <hyperlink ref="J41" r:id="rId6" xr:uid="{19EAB894-4D24-EB4F-A969-6FAE0100D044}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{52766A8E-05AE-B54D-8AC2-0AC1BF8FAF7F}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{976C53F4-7631-DC46-9B10-79FF5DD69D56}"/>
+    <hyperlink ref="J27" r:id="rId9" xr:uid="{D4541E93-BC9A-9943-A270-15E30063C8D2}"/>
+    <hyperlink ref="J56" r:id="rId10" xr:uid="{8EFAA8D1-7E41-6247-B066-317CB051BC1C}"/>
+    <hyperlink ref="J76" r:id="rId11" xr:uid="{A64717BC-8D4E-1148-A379-CC97141A6946}"/>
+    <hyperlink ref="J194" r:id="rId12" xr:uid="{AA3642F3-1A69-EF43-B581-3AF5508F29E8}"/>
     <hyperlink ref="J198" r:id="rId13" xr:uid="{7F606F37-429F-7542-B812-BC237565DBF3}"/>
-    <hyperlink ref="J51" r:id="rId14" xr:uid="{7A851337-565D-5540-AB1F-0799AC256E16}"/>
+    <hyperlink ref="J61" r:id="rId14" xr:uid="{7A851337-565D-5540-AB1F-0799AC256E16}"/>
     <hyperlink ref="J197" r:id="rId15" xr:uid="{A4A7C27D-17BF-5042-881F-A1980B187C6F}"/>
-    <hyperlink ref="J50" r:id="rId16" xr:uid="{E5527A9C-0ECA-8241-A80A-B78CE9880BB8}"/>
-    <hyperlink ref="J47" r:id="rId17" xr:uid="{F7EBE543-DDE0-154F-9A22-3C6065140BDE}"/>
-    <hyperlink ref="J7" r:id="rId18" xr:uid="{760C4DD4-13E0-5A48-B2F3-2AF275222BFB}"/>
-    <hyperlink ref="J16" r:id="rId19" xr:uid="{256F92D3-9FF7-D84D-9928-1BA64D938BA2}"/>
-    <hyperlink ref="J5" r:id="rId20" xr:uid="{297ADEEB-4B20-3148-9062-49FB9F50A661}"/>
-    <hyperlink ref="J35" r:id="rId21" xr:uid="{35ACB86A-6F5C-C546-9197-81A7EB6CEF93}"/>
-    <hyperlink ref="J10" r:id="rId22" xr:uid="{1FD83D1D-6356-F840-B10E-FA159DAA4004}"/>
-    <hyperlink ref="J29" r:id="rId23" xr:uid="{D7151019-2A2F-4344-BA2D-53B9A68F5DD3}"/>
-    <hyperlink ref="J61" r:id="rId24" xr:uid="{736A8AA4-E52B-984C-86A1-034F12EE7D14}"/>
-    <hyperlink ref="J191" r:id="rId25" xr:uid="{C169DED6-555A-0E46-ADFF-959988BB123F}"/>
-    <hyperlink ref="J150" r:id="rId26" xr:uid="{36BC88E4-9297-5443-A449-1791712A35F7}"/>
-    <hyperlink ref="J152" r:id="rId27" xr:uid="{1F670ACC-B08F-8B4C-BFEA-EEFA91EB971B}"/>
-    <hyperlink ref="J158" r:id="rId28" xr:uid="{58506291-76F9-574B-BB18-4302133A7502}"/>
-    <hyperlink ref="J6" r:id="rId29" xr:uid="{F5C570C6-4480-C04B-B825-297CE7008458}"/>
-    <hyperlink ref="J12" r:id="rId30" xr:uid="{1A1D4649-A7F8-6D4D-9367-C67B8E8C38D7}"/>
-    <hyperlink ref="J11" r:id="rId31" xr:uid="{BB083118-4DF7-1447-8BE0-DE91CF66F053}"/>
-    <hyperlink ref="J3" r:id="rId32" xr:uid="{5A5BCC09-2C68-504A-9B35-42C84B9F50C3}"/>
-    <hyperlink ref="J42" r:id="rId33" xr:uid="{ECB4214D-3300-CA4A-B05F-06A59855017B}"/>
+    <hyperlink ref="J60" r:id="rId16" xr:uid="{E5527A9C-0ECA-8241-A80A-B78CE9880BB8}"/>
+    <hyperlink ref="J195" r:id="rId17" xr:uid="{F7EBE543-DDE0-154F-9A22-3C6065140BDE}"/>
+    <hyperlink ref="J188" r:id="rId18" xr:uid="{760C4DD4-13E0-5A48-B2F3-2AF275222BFB}"/>
+    <hyperlink ref="J45" r:id="rId19" xr:uid="{256F92D3-9FF7-D84D-9928-1BA64D938BA2}"/>
+    <hyperlink ref="J186" r:id="rId20" xr:uid="{297ADEEB-4B20-3148-9062-49FB9F50A661}"/>
+    <hyperlink ref="J14" r:id="rId21" xr:uid="{35ACB86A-6F5C-C546-9197-81A7EB6CEF93}"/>
+    <hyperlink ref="J191" r:id="rId22" xr:uid="{1FD83D1D-6356-F840-B10E-FA159DAA4004}"/>
+    <hyperlink ref="J58" r:id="rId23" xr:uid="{D7151019-2A2F-4344-BA2D-53B9A68F5DD3}"/>
+    <hyperlink ref="J71" r:id="rId24" xr:uid="{736A8AA4-E52B-984C-86A1-034F12EE7D14}"/>
+    <hyperlink ref="J23" r:id="rId25" xr:uid="{C169DED6-555A-0E46-ADFF-959988BB123F}"/>
+    <hyperlink ref="J160" r:id="rId26" xr:uid="{36BC88E4-9297-5443-A449-1791712A35F7}"/>
+    <hyperlink ref="J162" r:id="rId27" xr:uid="{1F670ACC-B08F-8B4C-BFEA-EEFA91EB971B}"/>
+    <hyperlink ref="J168" r:id="rId28" xr:uid="{58506291-76F9-574B-BB18-4302133A7502}"/>
+    <hyperlink ref="J187" r:id="rId29" xr:uid="{F5C570C6-4480-C04B-B825-297CE7008458}"/>
+    <hyperlink ref="J193" r:id="rId30" xr:uid="{1A1D4649-A7F8-6D4D-9367-C67B8E8C38D7}"/>
+    <hyperlink ref="J192" r:id="rId31" xr:uid="{BB083118-4DF7-1447-8BE0-DE91CF66F053}"/>
+    <hyperlink ref="J184" r:id="rId32" xr:uid="{5A5BCC09-2C68-504A-9B35-42C84B9F50C3}"/>
+    <hyperlink ref="J3" r:id="rId33" xr:uid="{ECB4214D-3300-CA4A-B05F-06A59855017B}"/>
     <hyperlink ref="J199" r:id="rId34" xr:uid="{6A1A3287-A15A-EB4D-829C-065B6C9D1CB3}"/>
     <hyperlink ref="J213" r:id="rId35" xr:uid="{2CEF24D6-66A6-F541-B06B-13C1BDD4D7EE}"/>
-    <hyperlink ref="J174" r:id="rId36" xr:uid="{8757C179-4519-8F4F-88CE-E4B56642B970}"/>
-    <hyperlink ref="J54" r:id="rId37" xr:uid="{8AF236ED-CE43-3146-A3FA-60601D517F2A}"/>
-    <hyperlink ref="J64" r:id="rId38" xr:uid="{F383DE55-EE8A-1A49-95D8-998F651E6355}"/>
-    <hyperlink ref="J59" r:id="rId39" xr:uid="{8B19688C-0DE1-6840-B3D0-BA9DF060EC14}"/>
-    <hyperlink ref="J168" r:id="rId40" xr:uid="{19FCE189-4C11-954A-A3B3-C5FA0EC79832}"/>
-    <hyperlink ref="J171" r:id="rId41" xr:uid="{31150BB1-CAF8-6B47-A4AA-08651DE93B42}"/>
-    <hyperlink ref="J33" r:id="rId42" xr:uid="{7AA0EE4C-EAEF-7749-9BF4-B3939FF758DE}"/>
-    <hyperlink ref="J185" r:id="rId43" xr:uid="{9AF2A74F-24C0-7145-9E32-3EE35BFE9321}"/>
-    <hyperlink ref="J34" r:id="rId44" xr:uid="{5D30EF29-8550-8247-AD62-1EAF71948510}"/>
-    <hyperlink ref="J32" r:id="rId45" xr:uid="{7A93FD25-D23D-0049-BCED-00307E038659}"/>
+    <hyperlink ref="J39" r:id="rId36" xr:uid="{8757C179-4519-8F4F-88CE-E4B56642B970}"/>
+    <hyperlink ref="J64" r:id="rId37" xr:uid="{8AF236ED-CE43-3146-A3FA-60601D517F2A}"/>
+    <hyperlink ref="J74" r:id="rId38" xr:uid="{F383DE55-EE8A-1A49-95D8-998F651E6355}"/>
+    <hyperlink ref="J69" r:id="rId39" xr:uid="{8B19688C-0DE1-6840-B3D0-BA9DF060EC14}"/>
+    <hyperlink ref="J178" r:id="rId40" xr:uid="{19FCE189-4C11-954A-A3B3-C5FA0EC79832}"/>
+    <hyperlink ref="J181" r:id="rId41" xr:uid="{31150BB1-CAF8-6B47-A4AA-08651DE93B42}"/>
+    <hyperlink ref="J29" r:id="rId42" xr:uid="{7AA0EE4C-EAEF-7749-9BF4-B3939FF758DE}"/>
+    <hyperlink ref="J25" r:id="rId43" xr:uid="{9AF2A74F-24C0-7145-9E32-3EE35BFE9321}"/>
+    <hyperlink ref="J24" r:id="rId44" xr:uid="{5D30EF29-8550-8247-AD62-1EAF71948510}"/>
+    <hyperlink ref="J28" r:id="rId45" xr:uid="{7A93FD25-D23D-0049-BCED-00307E038659}"/>
     <hyperlink ref="J220" r:id="rId46" xr:uid="{1858D5DC-41A5-954C-ABAA-FFD234E454C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
